--- a/analyzed/ink-helps-drive-democracy-in-asia/ink-helps-drive-democracy-in-asia.xlsx
+++ b/analyzed/ink-helps-drive-democracy-in-asia/ink-helps-drive-democracy-in-asia.xlsx
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.178071607455993</v>
+        <v>0.1772758065611018</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1454,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.2676172803117076</v>
+        <v>0.2469552817098144</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1465,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2773462719071823</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1487,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1688504801248855</v>
+        <v>0.1807366431845616</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.4932090152024984</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1520,7 +1520,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.319276837766344</v>
+        <v>0.3274048790959196</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1531,7 +1531,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1542,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.148506673424271</v>
+        <v>0.1374992750807361</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1553,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2233299943059129</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1564,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.1386045007921166</v>
+        <v>0.1661435323551922</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1575,7 +1575,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1597,7 +1597,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.1728688925637532</v>
+        <v>0.2507058499193394</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1608,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.2920513454669805</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1619,7 +1619,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.319276837766344</v>
+        <v>0.3274048790959196</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1641,7 +1641,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.1339520434578527</v>
+        <v>0.09826855144791759</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1652,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>0.2948839123097943</v>
+        <v>0.2834873013397581</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1674,7 +1674,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1685,7 +1685,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>0.427131536540869</v>
+        <v>0.4198506507970658</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1696,7 +1696,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>0.3245377988084846</v>
+        <v>0.3016200970885012</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1729,7 +1729,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.1734162607931829</v>
+        <v>0.2301261662652478</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1740,7 +1740,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -1751,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1762,7 +1762,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.1976918439171908</v>
+        <v>0.2021915031234337</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1773,7 +1773,7 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1784,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1795,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>0.2676172803117076</v>
+        <v>0.2469552817098144</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1806,7 +1806,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
@@ -1817,7 +1817,7 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>0.1684638620189691</v>
+        <v>0.1772758065611018</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -1828,7 +1828,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1873719855042872</v>
+        <v>0.1890272950800261</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1839,7 +1839,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1792043189875632</v>
+        <v>0.2004557931576172</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1850,7 +1850,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1410817817047395</v>
+        <v>0.1124420832490857</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -1861,7 +1861,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.08050382064243011</v>
+        <v>0.07293035554343004</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -1872,7 +1872,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1885350824230305</v>
+        <v>0.1193790429860938</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>26</v>
       </c>
       <c r="B43">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1894,7 +1894,7 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>0.1949602843229294</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -1905,7 +1905,7 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>0.1638611679575127</v>
+        <v>0.1834126459018474</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -1916,7 +1916,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>0.182948192496717</v>
+        <v>0.2041928233018406</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
@@ -1927,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="B47">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -1938,7 +1938,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.2233299943059129</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -1949,7 +1949,7 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1899356757729413</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1960,7 +1960,7 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.1916653971717538</v>
+        <v>0.2045469820665678</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -1971,7 +1971,7 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.1404005400862175</v>
+        <v>0.1197272861129063</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -1982,7 +1982,7 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1890496675494211</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
@@ -1993,7 +1993,7 @@
         <v>23</v>
       </c>
       <c r="B53">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -2015,7 +2015,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.1721612980478802</v>
+        <v>0.1726747081368316</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -2026,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="B56">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -2037,7 +2037,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.1185505689260276</v>
+        <v>0.1135751085110706</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2048,7 +2048,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.2230914421561438</v>
+        <v>0.2673249643608739</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -2059,7 +2059,7 @@
         <v>39</v>
       </c>
       <c r="B59">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
@@ -2070,7 +2070,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.1466098276766974</v>
+        <v>0.1595887533806945</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
@@ -2081,7 +2081,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.1029604550299477</v>
+        <v>0.09245508854661751</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -2092,7 +2092,7 @@
         <v>39</v>
       </c>
       <c r="B62">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>40</v>
@@ -2103,7 +2103,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.1369366585892279</v>
+        <v>0.11070255972416</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -2114,7 +2114,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.1822834629590016</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -2147,7 +2147,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1797904151459161</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
@@ -2158,7 +2158,7 @@
         <v>37</v>
       </c>
       <c r="B68">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -2169,7 +2169,7 @@
         <v>57</v>
       </c>
       <c r="B69">
-        <v>0.1185505689260276</v>
+        <v>0.1135751085110706</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -2180,7 +2180,7 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <v>0.1865757211421694</v>
+        <v>0.2041928233018406</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -2191,7 +2191,7 @@
         <v>23</v>
       </c>
       <c r="B71">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2202,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="B72">
-        <v>0.2773462719071823</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -2224,7 +2224,7 @@
         <v>15</v>
       </c>
       <c r="B74">
-        <v>0.4932090152024984</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -2235,7 +2235,7 @@
         <v>68</v>
       </c>
       <c r="B75">
-        <v>0.1367553133627924</v>
+        <v>0.1453434072524114</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -2246,7 +2246,7 @@
         <v>69</v>
       </c>
       <c r="B76">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2257,7 +2257,7 @@
         <v>70</v>
       </c>
       <c r="B77">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -2268,7 +2268,7 @@
         <v>71</v>
       </c>
       <c r="B78">
-        <v>0.24539090308111</v>
+        <v>0.2746282402130241</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
@@ -2279,7 +2279,7 @@
         <v>73</v>
       </c>
       <c r="B79">
-        <v>0.1639798646263975</v>
+        <v>0.1662780759993819</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -2301,7 +2301,7 @@
         <v>74</v>
       </c>
       <c r="B81">
-        <v>0.2033420279410437</v>
+        <v>0.236679782415827</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2312,7 +2312,7 @@
         <v>75</v>
       </c>
       <c r="B82">
-        <v>0.2085144140570748</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -2334,7 +2334,7 @@
         <v>76</v>
       </c>
       <c r="B84">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -2345,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="B85">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -2367,7 +2367,7 @@
         <v>77</v>
       </c>
       <c r="B87">
-        <v>0.1192561779924498</v>
+        <v>0.1387197981422064</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -2389,7 +2389,7 @@
         <v>78</v>
       </c>
       <c r="B89">
-        <v>0.2808842517870301</v>
+        <v>0.2834873013397581</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -2400,7 +2400,7 @@
         <v>79</v>
       </c>
       <c r="B90">
-        <v>0.3013520950363157</v>
+        <v>0.3961702187751452</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -2411,7 +2411,7 @@
         <v>30</v>
       </c>
       <c r="B91">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -2422,7 +2422,7 @@
         <v>80</v>
       </c>
       <c r="B92">
-        <v>0.2699121101836027</v>
+        <v>0.2948839123097942</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -2433,7 +2433,7 @@
         <v>36</v>
       </c>
       <c r="B93">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C93" t="s">
         <v>34</v>
@@ -2455,7 +2455,7 @@
         <v>81</v>
       </c>
       <c r="B95">
-        <v>0.08806271491745608</v>
+        <v>0.09022657665172276</v>
       </c>
       <c r="C95" t="s">
         <v>82</v>
@@ -2466,7 +2466,7 @@
         <v>83</v>
       </c>
       <c r="B96">
-        <v>0.1566546856263226</v>
+        <v>0.2333002823431659</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -2477,7 +2477,7 @@
         <v>84</v>
       </c>
       <c r="B97">
-        <v>0.14570095671273</v>
+        <v>0.1699165931156645</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="B98">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
         <v>40</v>
@@ -2499,7 +2499,7 @@
         <v>85</v>
       </c>
       <c r="B99">
-        <v>0.1580138786080862</v>
+        <v>0.1941914909599574</v>
       </c>
       <c r="C99" t="s">
         <v>42</v>
@@ -2510,7 +2510,7 @@
         <v>86</v>
       </c>
       <c r="B100">
-        <v>0.1196848793874319</v>
+        <v>0.1138971797748869</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -2521,7 +2521,7 @@
         <v>87</v>
       </c>
       <c r="B101">
-        <v>0.2046827350270911</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C101" t="s">
         <v>34</v>
@@ -2532,7 +2532,7 @@
         <v>88</v>
       </c>
       <c r="B102">
-        <v>0.2481137654429322</v>
+        <v>0.2673249643608739</v>
       </c>
       <c r="C102" t="s">
         <v>72</v>
@@ -2543,7 +2543,7 @@
         <v>89</v>
       </c>
       <c r="B103">
-        <v>0.1027020478095256</v>
+        <v>0.09206737467227857</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -2554,7 +2554,7 @@
         <v>45</v>
       </c>
       <c r="B104">
-        <v>0.1410817817047395</v>
+        <v>0.1124420832490857</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -2565,7 +2565,7 @@
         <v>90</v>
       </c>
       <c r="B105">
-        <v>0.1320703448688264</v>
+        <v>0.1686143870865088</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -2587,7 +2587,7 @@
         <v>15</v>
       </c>
       <c r="B107">
-        <v>0.4932090152024984</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -2598,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="B108">
-        <v>0.319276837766344</v>
+        <v>0.3274048790959196</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -2609,7 +2609,7 @@
         <v>26</v>
       </c>
       <c r="B109">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -2620,7 +2620,7 @@
         <v>91</v>
       </c>
       <c r="B110">
-        <v>0.1281145468596509</v>
+        <v>0.1399718721291606</v>
       </c>
       <c r="C110" t="s">
         <v>72</v>
@@ -2631,7 +2631,7 @@
         <v>92</v>
       </c>
       <c r="B111">
-        <v>0.06450775264535137</v>
+        <v>0.04977963733635955</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -2642,7 +2642,7 @@
         <v>93</v>
       </c>
       <c r="B112">
-        <v>0.1506802392032524</v>
+        <v>0.1236693791382344</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2653,7 +2653,7 @@
         <v>94</v>
       </c>
       <c r="B113">
-        <v>0.1602190938483747</v>
+        <v>0.1482888036538878</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
@@ -2664,7 +2664,7 @@
         <v>37</v>
       </c>
       <c r="B114">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -2675,7 +2675,7 @@
         <v>95</v>
       </c>
       <c r="B115">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -2686,7 +2686,7 @@
         <v>96</v>
       </c>
       <c r="B116">
-        <v>0.05272300487990356</v>
+        <v>0.04932591477009994</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -2708,7 +2708,7 @@
         <v>97</v>
       </c>
       <c r="B118">
-        <v>0.1303932394096781</v>
+        <v>0.1393417591542765</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -2719,7 +2719,7 @@
         <v>98</v>
       </c>
       <c r="B119">
-        <v>0.140864202296253</v>
+        <v>0.1482888036538878</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -2730,7 +2730,7 @@
         <v>99</v>
       </c>
       <c r="B120">
-        <v>0.06019823172130713</v>
+        <v>0.03900099962461216</v>
       </c>
       <c r="C120" t="s">
         <v>82</v>
@@ -2741,7 +2741,7 @@
         <v>100</v>
       </c>
       <c r="B121">
-        <v>0.1538077768791168</v>
+        <v>0.1890272950800261</v>
       </c>
       <c r="C121" t="s">
         <v>18</v>
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="B122">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
@@ -2774,7 +2774,7 @@
         <v>101</v>
       </c>
       <c r="B124">
-        <v>0.2160492388626309</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C124" t="s">
         <v>34</v>
@@ -2785,7 +2785,7 @@
         <v>89</v>
       </c>
       <c r="B125">
-        <v>0.1027020478095256</v>
+        <v>0.09206737467227857</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
@@ -2796,7 +2796,7 @@
         <v>19</v>
       </c>
       <c r="B126">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -2807,7 +2807,7 @@
         <v>102</v>
       </c>
       <c r="B127">
-        <v>0.2283550350209294</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C127" t="s">
         <v>103</v>
@@ -2818,7 +2818,7 @@
         <v>71</v>
       </c>
       <c r="B128">
-        <v>0.24539090308111</v>
+        <v>0.2746282402130241</v>
       </c>
       <c r="C128" t="s">
         <v>72</v>
@@ -2829,7 +2829,7 @@
         <v>73</v>
       </c>
       <c r="B129">
-        <v>0.1639798646263975</v>
+        <v>0.1662780759993819</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -2840,7 +2840,7 @@
         <v>104</v>
       </c>
       <c r="B130">
-        <v>0.2014373583973602</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -2851,7 +2851,7 @@
         <v>10</v>
       </c>
       <c r="B131">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -2862,7 +2862,7 @@
         <v>105</v>
       </c>
       <c r="B132">
-        <v>0.1244096290967719</v>
+        <v>0.1425796983729612</v>
       </c>
       <c r="C132" t="s">
         <v>66</v>
@@ -2873,7 +2873,7 @@
         <v>106</v>
       </c>
       <c r="B133">
-        <v>0.1797904151459161</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -2895,7 +2895,7 @@
         <v>107</v>
       </c>
       <c r="B135">
-        <v>0.2233299943059129</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -2906,7 +2906,7 @@
         <v>108</v>
       </c>
       <c r="B136">
-        <v>0.2014373583973602</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -2917,7 +2917,7 @@
         <v>39</v>
       </c>
       <c r="B137">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
         <v>40</v>
@@ -2928,7 +2928,7 @@
         <v>109</v>
       </c>
       <c r="B138">
-        <v>0.1562461959591414</v>
+        <v>0.1365720641415993</v>
       </c>
       <c r="C138" t="s">
         <v>66</v>
@@ -2939,7 +2939,7 @@
         <v>110</v>
       </c>
       <c r="B139">
-        <v>0.1949602843229294</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -2950,7 +2950,7 @@
         <v>89</v>
       </c>
       <c r="B140">
-        <v>0.1027020478095256</v>
+        <v>0.09206737467227857</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
@@ -2961,7 +2961,7 @@
         <v>111</v>
       </c>
       <c r="B141">
-        <v>0.1949602843229294</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C141" t="s">
         <v>66</v>
@@ -2972,7 +2972,7 @@
         <v>112</v>
       </c>
       <c r="B142">
-        <v>0.2132160064661374</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C142" t="s">
         <v>34</v>
@@ -2994,7 +2994,7 @@
         <v>76</v>
       </c>
       <c r="B144">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -3005,7 +3005,7 @@
         <v>23</v>
       </c>
       <c r="B145">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
@@ -3027,7 +3027,7 @@
         <v>26</v>
       </c>
       <c r="B147">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -3038,7 +3038,7 @@
         <v>113</v>
       </c>
       <c r="B148">
-        <v>0.09775450020031647</v>
+        <v>0.09466339246199332</v>
       </c>
       <c r="C148" t="s">
         <v>103</v>
@@ -3049,7 +3049,7 @@
         <v>109</v>
       </c>
       <c r="B149">
-        <v>0.1562461959591414</v>
+        <v>0.1365720641415993</v>
       </c>
       <c r="C149" t="s">
         <v>66</v>
@@ -3060,7 +3060,7 @@
         <v>38</v>
       </c>
       <c r="B150">
-        <v>0.1976918439171908</v>
+        <v>0.2021915031234337</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -3071,7 +3071,7 @@
         <v>23</v>
       </c>
       <c r="B151">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -3082,7 +3082,7 @@
         <v>19</v>
       </c>
       <c r="B152">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -3093,7 +3093,7 @@
         <v>114</v>
       </c>
       <c r="B153">
-        <v>0.1302761513956191</v>
+        <v>0.160605515509418</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -3104,7 +3104,7 @@
         <v>58</v>
       </c>
       <c r="B154">
-        <v>0.2230914421561438</v>
+        <v>0.2673249643608739</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -3115,7 +3115,7 @@
         <v>39</v>
       </c>
       <c r="B155">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C155" t="s">
         <v>40</v>
@@ -3126,7 +3126,7 @@
         <v>115</v>
       </c>
       <c r="B156">
-        <v>0.1258522432067695</v>
+        <v>0.132895500760979</v>
       </c>
       <c r="C156" t="s">
         <v>42</v>
@@ -3137,7 +3137,7 @@
         <v>116</v>
       </c>
       <c r="B157">
-        <v>0.1754429260504258</v>
+        <v>0.2004557931576172</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -3148,7 +3148,7 @@
         <v>117</v>
       </c>
       <c r="B158">
-        <v>0.2230914421561438</v>
+        <v>0.236679782415827</v>
       </c>
       <c r="C158" t="s">
         <v>34</v>
@@ -3159,7 +3159,7 @@
         <v>118</v>
       </c>
       <c r="B159">
-        <v>0.07414279687131881</v>
+        <v>0.04996675080124403</v>
       </c>
       <c r="C159" t="s">
         <v>119</v>
@@ -3170,7 +3170,7 @@
         <v>120</v>
       </c>
       <c r="B160">
-        <v>0.1334411020785059</v>
+        <v>0.1425796983729612</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -3181,7 +3181,7 @@
         <v>36</v>
       </c>
       <c r="B161">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C161" t="s">
         <v>34</v>
@@ -3192,7 +3192,7 @@
         <v>121</v>
       </c>
       <c r="B162">
-        <v>0.1833782450022188</v>
+        <v>0.2263963946495571</v>
       </c>
       <c r="C162" t="s">
         <v>122</v>
@@ -3214,7 +3214,7 @@
         <v>123</v>
       </c>
       <c r="B164">
-        <v>0.1605068120111303</v>
+        <v>0.1890272950800261</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
@@ -3225,7 +3225,7 @@
         <v>124</v>
       </c>
       <c r="B165">
-        <v>0.2132160064661374</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3247,7 +3247,7 @@
         <v>125</v>
       </c>
       <c r="B167">
-        <v>0.2283550350209294</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -3258,7 +3258,7 @@
         <v>126</v>
       </c>
       <c r="B168">
-        <v>0.1822834629590016</v>
+        <v>0.1826151182382715</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -3269,7 +3269,7 @@
         <v>30</v>
       </c>
       <c r="B169">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C169" t="s">
         <v>31</v>
@@ -3291,7 +3291,7 @@
         <v>15</v>
       </c>
       <c r="B171">
-        <v>0.4932090152024984</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C171" t="s">
         <v>8</v>
@@ -3302,7 +3302,7 @@
         <v>83</v>
       </c>
       <c r="B172">
-        <v>0.1566546856263226</v>
+        <v>0.2333002823431659</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -3313,7 +3313,7 @@
         <v>127</v>
       </c>
       <c r="B173">
-        <v>0.1072500202186333</v>
+        <v>0.08647140868087302</v>
       </c>
       <c r="C173" t="s">
         <v>128</v>
@@ -3324,7 +3324,7 @@
         <v>86</v>
       </c>
       <c r="B174">
-        <v>0.1196848793874319</v>
+        <v>0.1138971797748869</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -3335,7 +3335,7 @@
         <v>129</v>
       </c>
       <c r="B175">
-        <v>0.1999807915952935</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C175" t="s">
         <v>72</v>
@@ -3346,7 +3346,7 @@
         <v>39</v>
       </c>
       <c r="B176">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C176" t="s">
         <v>40</v>
@@ -3357,7 +3357,7 @@
         <v>130</v>
       </c>
       <c r="B177">
-        <v>0.1822834629590016</v>
+        <v>0.1890272950800261</v>
       </c>
       <c r="C177" t="s">
         <v>42</v>
@@ -3368,7 +3368,7 @@
         <v>131</v>
       </c>
       <c r="B178">
-        <v>0.2014373583973602</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C178" t="s">
         <v>8</v>
@@ -3379,7 +3379,7 @@
         <v>132</v>
       </c>
       <c r="B179">
-        <v>0.3396784241178987</v>
+        <v>0.4198506507970658</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -3390,7 +3390,7 @@
         <v>133</v>
       </c>
       <c r="B180">
-        <v>0.1973291401291344</v>
+        <v>0.1867406055897238</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
@@ -3412,7 +3412,7 @@
         <v>134</v>
       </c>
       <c r="B182">
-        <v>0.1999807915952935</v>
+        <v>0.1941914909599574</v>
       </c>
       <c r="C182" t="s">
         <v>8</v>
@@ -3423,7 +3423,7 @@
         <v>47</v>
       </c>
       <c r="B183">
-        <v>0.1885350824230305</v>
+        <v>0.1193790429860938</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -3434,7 +3434,7 @@
         <v>135</v>
       </c>
       <c r="B184">
-        <v>0.1384588417000007</v>
+        <v>0.138105721629785</v>
       </c>
       <c r="C184" t="s">
         <v>11</v>
@@ -3467,7 +3467,7 @@
         <v>26</v>
       </c>
       <c r="B187">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -3478,7 +3478,7 @@
         <v>136</v>
       </c>
       <c r="B188">
-        <v>0.1642223608869795</v>
+        <v>0.1510448991593908</v>
       </c>
       <c r="C188" t="s">
         <v>103</v>
@@ -3489,7 +3489,7 @@
         <v>137</v>
       </c>
       <c r="B189">
-        <v>0.08555786669002273</v>
+        <v>0.03528553786282437</v>
       </c>
       <c r="C189" t="s">
         <v>11</v>
@@ -3500,7 +3500,7 @@
         <v>138</v>
       </c>
       <c r="B190">
-        <v>0.206511486834357</v>
+        <v>0.2041928233018406</v>
       </c>
       <c r="C190" t="s">
         <v>18</v>
@@ -3533,7 +3533,7 @@
         <v>26</v>
       </c>
       <c r="B193">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -3544,7 +3544,7 @@
         <v>139</v>
       </c>
       <c r="B194">
-        <v>0.3487514391920256</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C194" t="s">
         <v>72</v>
@@ -3555,7 +3555,7 @@
         <v>140</v>
       </c>
       <c r="B195">
-        <v>0.03954240969490432</v>
+        <v>0.03790403862446516</v>
       </c>
       <c r="C195" t="s">
         <v>11</v>
@@ -3566,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="B196">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
@@ -3577,7 +3577,7 @@
         <v>141</v>
       </c>
       <c r="B197">
-        <v>0.1619899656635359</v>
+        <v>0.1638291246410548</v>
       </c>
       <c r="C197" t="s">
         <v>4</v>
@@ -3588,7 +3588,7 @@
         <v>142</v>
       </c>
       <c r="B198">
-        <v>0.1949946502524172</v>
+        <v>0.236679782415827</v>
       </c>
       <c r="C198" t="s">
         <v>18</v>
@@ -3599,7 +3599,7 @@
         <v>143</v>
       </c>
       <c r="B199">
-        <v>0.3611575592573076</v>
+        <v>0.3961702187751452</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -3610,7 +3610,7 @@
         <v>99</v>
       </c>
       <c r="B200">
-        <v>0.06019823172130713</v>
+        <v>0.03900099962461216</v>
       </c>
       <c r="C200" t="s">
         <v>82</v>
@@ -3621,7 +3621,7 @@
         <v>144</v>
       </c>
       <c r="B201">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -3632,7 +3632,7 @@
         <v>30</v>
       </c>
       <c r="B202">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C202" t="s">
         <v>31</v>
@@ -3643,7 +3643,7 @@
         <v>26</v>
       </c>
       <c r="B203">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3654,7 +3654,7 @@
         <v>136</v>
       </c>
       <c r="B204">
-        <v>0.1642223608869795</v>
+        <v>0.1510448991593908</v>
       </c>
       <c r="C204" t="s">
         <v>103</v>
@@ -3665,7 +3665,7 @@
         <v>145</v>
       </c>
       <c r="B205">
-        <v>0.2894650998589308</v>
+        <v>0.3234716290952953</v>
       </c>
       <c r="C205" t="s">
         <v>8</v>
@@ -3676,7 +3676,7 @@
         <v>146</v>
       </c>
       <c r="B206">
-        <v>0.2011250072559974</v>
+        <v>0.2402697383980003</v>
       </c>
       <c r="C206" t="s">
         <v>11</v>
@@ -3687,7 +3687,7 @@
         <v>147</v>
       </c>
       <c r="B207">
-        <v>0.178071607455993</v>
+        <v>0.1890272950800261</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -3698,7 +3698,7 @@
         <v>148</v>
       </c>
       <c r="B208">
-        <v>0.3311060239952102</v>
+        <v>0.3453494162736631</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
@@ -3709,7 +3709,7 @@
         <v>149</v>
       </c>
       <c r="B209">
-        <v>0.1624526195092718</v>
+        <v>0.1927690655290109</v>
       </c>
       <c r="C209" t="s">
         <v>103</v>
@@ -3731,7 +3731,7 @@
         <v>150</v>
       </c>
       <c r="B211">
-        <v>0.1873719855042872</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -3742,7 +3742,7 @@
         <v>23</v>
       </c>
       <c r="B212">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
@@ -3753,7 +3753,7 @@
         <v>32</v>
       </c>
       <c r="B213">
-        <v>0.427131536540869</v>
+        <v>0.4198506507970658</v>
       </c>
       <c r="C213" t="s">
         <v>8</v>
@@ -3764,7 +3764,7 @@
         <v>148</v>
       </c>
       <c r="B214">
-        <v>0.3311060239952102</v>
+        <v>0.3453494162736631</v>
       </c>
       <c r="C214" t="s">
         <v>4</v>
@@ -3775,7 +3775,7 @@
         <v>23</v>
       </c>
       <c r="B215">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C215" t="s">
         <v>11</v>
@@ -3797,7 +3797,7 @@
         <v>151</v>
       </c>
       <c r="B217">
-        <v>0.1619899656635359</v>
+        <v>0.1585979606532581</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -3808,7 +3808,7 @@
         <v>152</v>
       </c>
       <c r="B218">
-        <v>0.1700713348953152</v>
+        <v>0.1370994290149918</v>
       </c>
       <c r="C218" t="s">
         <v>72</v>
@@ -3819,7 +3819,7 @@
         <v>39</v>
       </c>
       <c r="B219">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C219" t="s">
         <v>40</v>
@@ -3830,7 +3830,7 @@
         <v>153</v>
       </c>
       <c r="B220">
-        <v>0.2193530090990879</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C220" t="s">
         <v>42</v>
@@ -3841,7 +3841,7 @@
         <v>154</v>
       </c>
       <c r="B221">
-        <v>0.1282254601459605</v>
+        <v>0.1425796983729612</v>
       </c>
       <c r="C221" t="s">
         <v>4</v>
@@ -3852,7 +3852,7 @@
         <v>155</v>
       </c>
       <c r="B222">
-        <v>0.1899356757729413</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -3885,7 +3885,7 @@
         <v>39</v>
       </c>
       <c r="B225">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C225" t="s">
         <v>40</v>
@@ -3896,7 +3896,7 @@
         <v>156</v>
       </c>
       <c r="B226">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C226" t="s">
         <v>42</v>
@@ -3907,7 +3907,7 @@
         <v>89</v>
       </c>
       <c r="B227">
-        <v>0.1027020478095256</v>
+        <v>0.09206737467227857</v>
       </c>
       <c r="C227" t="s">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="B228">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
@@ -3929,7 +3929,7 @@
         <v>157</v>
       </c>
       <c r="B229">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C229" t="s">
         <v>8</v>
@@ -3940,7 +3940,7 @@
         <v>158</v>
       </c>
       <c r="B230">
-        <v>0.2132160064661374</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C230" t="s">
         <v>8</v>
@@ -3951,7 +3951,7 @@
         <v>148</v>
       </c>
       <c r="B231">
-        <v>0.3311060239952102</v>
+        <v>0.3453494162736631</v>
       </c>
       <c r="C231" t="s">
         <v>4</v>
@@ -3962,7 +3962,7 @@
         <v>159</v>
       </c>
       <c r="B232">
-        <v>0.0738401971908611</v>
+        <v>0.08091686274301003</v>
       </c>
       <c r="C232" t="s">
         <v>11</v>
@@ -3984,7 +3984,7 @@
         <v>160</v>
       </c>
       <c r="B234">
-        <v>0.2193530090990879</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C234" t="s">
         <v>4</v>
@@ -3995,7 +3995,7 @@
         <v>39</v>
       </c>
       <c r="B235">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C235" t="s">
         <v>40</v>
@@ -4006,7 +4006,7 @@
         <v>161</v>
       </c>
       <c r="B236">
-        <v>0.1360683734765208</v>
+        <v>0.1266669250801173</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -4017,7 +4017,7 @@
         <v>162</v>
       </c>
       <c r="B237">
-        <v>0.2870836993172353</v>
+        <v>0.3234716290952953</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -4028,7 +4028,7 @@
         <v>163</v>
       </c>
       <c r="B238">
-        <v>0.2510564844109614</v>
+        <v>0.2582567769069299</v>
       </c>
       <c r="C238" t="s">
         <v>4</v>
@@ -4039,7 +4039,7 @@
         <v>109</v>
       </c>
       <c r="B239">
-        <v>0.1562461959591414</v>
+        <v>0.1365720641415993</v>
       </c>
       <c r="C239" t="s">
         <v>66</v>
@@ -4050,7 +4050,7 @@
         <v>164</v>
       </c>
       <c r="B240">
-        <v>0.2354420178624285</v>
+        <v>0.3471996184205107</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -4061,7 +4061,7 @@
         <v>165</v>
       </c>
       <c r="B241">
-        <v>0.1520123663210324</v>
+        <v>0.1699165931156645</v>
       </c>
       <c r="C241" t="s">
         <v>4</v>
@@ -4072,7 +4072,7 @@
         <v>166</v>
       </c>
       <c r="B242">
-        <v>0.1143404073837723</v>
+        <v>0.1159850300861401</v>
       </c>
       <c r="C242" t="s">
         <v>167</v>
@@ -4083,7 +4083,7 @@
         <v>168</v>
       </c>
       <c r="B243">
-        <v>0.1986151591671186</v>
+        <v>0.2004557931576172</v>
       </c>
       <c r="C243" t="s">
         <v>42</v>
@@ -4094,7 +4094,7 @@
         <v>169</v>
       </c>
       <c r="B244">
-        <v>0.4093654700541822</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C244" t="s">
         <v>4</v>
@@ -4105,7 +4105,7 @@
         <v>170</v>
       </c>
       <c r="B245">
-        <v>0.2233299943059129</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C245" t="s">
         <v>34</v>
@@ -4116,7 +4116,7 @@
         <v>89</v>
       </c>
       <c r="B246">
-        <v>0.1027020478095256</v>
+        <v>0.09206737467227857</v>
       </c>
       <c r="C246" t="s">
         <v>11</v>
@@ -4127,7 +4127,7 @@
         <v>171</v>
       </c>
       <c r="B247">
-        <v>0.3327011715127159</v>
+        <v>0.3234716290952953</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -4138,7 +4138,7 @@
         <v>172</v>
       </c>
       <c r="B248">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C248" t="s">
         <v>4</v>
@@ -4149,7 +4149,7 @@
         <v>173</v>
       </c>
       <c r="B249">
-        <v>0.1435572727300842</v>
+        <v>0.1724680871142936</v>
       </c>
       <c r="C249" t="s">
         <v>11</v>
@@ -4160,7 +4160,7 @@
         <v>174</v>
       </c>
       <c r="B250">
-        <v>0.1708712423134459</v>
+        <v>0.1726747081368316</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -4171,7 +4171,7 @@
         <v>175</v>
       </c>
       <c r="B251">
-        <v>0.1013815579810064</v>
+        <v>0.08562106559645946</v>
       </c>
       <c r="C251" t="s">
         <v>82</v>
@@ -4182,7 +4182,7 @@
         <v>39</v>
       </c>
       <c r="B252">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C252" t="s">
         <v>40</v>
@@ -4193,7 +4193,7 @@
         <v>176</v>
       </c>
       <c r="B253">
-        <v>0.2518312823378433</v>
+        <v>0.2673249643608739</v>
       </c>
       <c r="C253" t="s">
         <v>42</v>
@@ -4204,7 +4204,7 @@
         <v>30</v>
       </c>
       <c r="B254">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C254" t="s">
         <v>31</v>
@@ -4215,7 +4215,7 @@
         <v>177</v>
       </c>
       <c r="B255">
-        <v>0.1321929552587096</v>
+        <v>0.1233285959403132</v>
       </c>
       <c r="C255" t="s">
         <v>14</v>
@@ -4226,7 +4226,7 @@
         <v>169</v>
       </c>
       <c r="B256">
-        <v>0.4093654700541822</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C256" t="s">
         <v>4</v>
@@ -4237,7 +4237,7 @@
         <v>166</v>
       </c>
       <c r="B257">
-        <v>0.1143404073837723</v>
+        <v>0.1159850300861401</v>
       </c>
       <c r="C257" t="s">
         <v>167</v>
@@ -4248,7 +4248,7 @@
         <v>127</v>
       </c>
       <c r="B258">
-        <v>0.1072500202186333</v>
+        <v>0.08647140868087302</v>
       </c>
       <c r="C258" t="s">
         <v>42</v>
@@ -4259,7 +4259,7 @@
         <v>178</v>
       </c>
       <c r="B259">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C259" t="s">
         <v>4</v>
@@ -4270,7 +4270,7 @@
         <v>142</v>
       </c>
       <c r="B260">
-        <v>0.1949946502524172</v>
+        <v>0.236679782415827</v>
       </c>
       <c r="C260" t="s">
         <v>72</v>
@@ -4281,7 +4281,7 @@
         <v>143</v>
       </c>
       <c r="B261">
-        <v>0.3611575592573076</v>
+        <v>0.3961702187751452</v>
       </c>
       <c r="C261" t="s">
         <v>8</v>
@@ -4292,7 +4292,7 @@
         <v>139</v>
       </c>
       <c r="B262">
-        <v>0.3487514391920256</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C262" t="s">
         <v>72</v>
@@ -4303,7 +4303,7 @@
         <v>89</v>
       </c>
       <c r="B263">
-        <v>0.1027020478095256</v>
+        <v>0.09206737467227857</v>
       </c>
       <c r="C263" t="s">
         <v>11</v>
@@ -4325,7 +4325,7 @@
         <v>173</v>
       </c>
       <c r="B265">
-        <v>0.1435572727300842</v>
+        <v>0.1724680871142936</v>
       </c>
       <c r="C265" t="s">
         <v>11</v>
@@ -4336,7 +4336,7 @@
         <v>179</v>
       </c>
       <c r="B266">
-        <v>0.1822834629590016</v>
+        <v>0.1914987225929675</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -4358,7 +4358,7 @@
         <v>132</v>
       </c>
       <c r="B268">
-        <v>0.3396784241178987</v>
+        <v>0.4198506507970658</v>
       </c>
       <c r="C268" t="s">
         <v>4</v>
@@ -4369,7 +4369,7 @@
         <v>180</v>
       </c>
       <c r="B269">
-        <v>0.08822418865785447</v>
+        <v>0.09022657665172276</v>
       </c>
       <c r="C269" t="s">
         <v>11</v>
@@ -4402,7 +4402,7 @@
         <v>181</v>
       </c>
       <c r="B272">
-        <v>0.1492975688206281</v>
+        <v>0.1475337675551301</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -4413,7 +4413,7 @@
         <v>146</v>
       </c>
       <c r="B273">
-        <v>0.2011250072559974</v>
+        <v>0.2402697383980003</v>
       </c>
       <c r="C273" t="s">
         <v>11</v>
@@ -4435,7 +4435,7 @@
         <v>171</v>
       </c>
       <c r="B275">
-        <v>0.3327011715127159</v>
+        <v>0.3234716290952953</v>
       </c>
       <c r="C275" t="s">
         <v>8</v>
@@ -4446,7 +4446,7 @@
         <v>148</v>
       </c>
       <c r="B276">
-        <v>0.3311060239952102</v>
+        <v>0.3453494162736631</v>
       </c>
       <c r="C276" t="s">
         <v>18</v>
@@ -4468,7 +4468,7 @@
         <v>169</v>
       </c>
       <c r="B278">
-        <v>0.4093654700541822</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C278" t="s">
         <v>4</v>
@@ -4479,7 +4479,7 @@
         <v>166</v>
       </c>
       <c r="B279">
-        <v>0.1143404073837723</v>
+        <v>0.1159850300861401</v>
       </c>
       <c r="C279" t="s">
         <v>167</v>
@@ -4490,7 +4490,7 @@
         <v>136</v>
       </c>
       <c r="B280">
-        <v>0.1642223608869795</v>
+        <v>0.1510448991593908</v>
       </c>
       <c r="C280" t="s">
         <v>103</v>
@@ -4501,7 +4501,7 @@
         <v>182</v>
       </c>
       <c r="B281">
-        <v>0.07715549947440452</v>
+        <v>0.05057927144444654</v>
       </c>
       <c r="C281" t="s">
         <v>42</v>
@@ -4512,7 +4512,7 @@
         <v>183</v>
       </c>
       <c r="B282">
-        <v>0.1572276067740828</v>
+        <v>0.1741404442470472</v>
       </c>
       <c r="C282" t="s">
         <v>72</v>
@@ -4523,7 +4523,7 @@
         <v>39</v>
       </c>
       <c r="B283">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C283" t="s">
         <v>40</v>
@@ -4534,7 +4534,7 @@
         <v>176</v>
       </c>
       <c r="B284">
-        <v>0.2518312823378433</v>
+        <v>0.2673249643608739</v>
       </c>
       <c r="C284" t="s">
         <v>42</v>
@@ -4556,7 +4556,7 @@
         <v>162</v>
       </c>
       <c r="B286">
-        <v>0.2870836993172353</v>
+        <v>0.3234716290952953</v>
       </c>
       <c r="C286" t="s">
         <v>4</v>
@@ -4567,7 +4567,7 @@
         <v>163</v>
       </c>
       <c r="B287">
-        <v>0.2510564844109614</v>
+        <v>0.2582567769069299</v>
       </c>
       <c r="C287" t="s">
         <v>4</v>
@@ -4578,7 +4578,7 @@
         <v>184</v>
       </c>
       <c r="B288">
-        <v>0.2283550350209294</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C288" t="s">
         <v>103</v>
@@ -4589,7 +4589,7 @@
         <v>185</v>
       </c>
       <c r="B289">
-        <v>0.1069693256891776</v>
+        <v>0.1115046536901923</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -4600,7 +4600,7 @@
         <v>169</v>
       </c>
       <c r="B290">
-        <v>0.4093654700541822</v>
+        <v>0.4848017725142511</v>
       </c>
       <c r="C290" t="s">
         <v>4</v>
@@ -4611,7 +4611,7 @@
         <v>186</v>
       </c>
       <c r="B291">
-        <v>0.07486385503041924</v>
+        <v>0.08991521911317543</v>
       </c>
       <c r="C291" t="s">
         <v>187</v>
@@ -4622,7 +4622,7 @@
         <v>188</v>
       </c>
       <c r="B292">
-        <v>0.206511486834357</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -4633,7 +4633,7 @@
         <v>39</v>
       </c>
       <c r="B293">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C293" t="s">
         <v>40</v>
@@ -4644,7 +4644,7 @@
         <v>182</v>
       </c>
       <c r="B294">
-        <v>0.07715549947440452</v>
+        <v>0.05057927144444654</v>
       </c>
       <c r="C294" t="s">
         <v>42</v>
@@ -4655,7 +4655,7 @@
         <v>189</v>
       </c>
       <c r="B295">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C295" t="s">
         <v>72</v>
@@ -4666,7 +4666,7 @@
         <v>166</v>
       </c>
       <c r="B296">
-        <v>0.1143404073837723</v>
+        <v>0.1159850300861401</v>
       </c>
       <c r="C296" t="s">
         <v>167</v>
@@ -4677,7 +4677,7 @@
         <v>136</v>
       </c>
       <c r="B297">
-        <v>0.1642223608869795</v>
+        <v>0.1510448991593908</v>
       </c>
       <c r="C297" t="s">
         <v>103</v>
@@ -4688,7 +4688,7 @@
         <v>190</v>
       </c>
       <c r="B298">
-        <v>0.1599341933250353</v>
+        <v>0.1661435323551922</v>
       </c>
       <c r="C298" t="s">
         <v>42</v>
@@ -4710,7 +4710,7 @@
         <v>132</v>
       </c>
       <c r="B300">
-        <v>0.3396784241178987</v>
+        <v>0.4198506507970658</v>
       </c>
       <c r="C300" t="s">
         <v>4</v>
@@ -4721,7 +4721,7 @@
         <v>191</v>
       </c>
       <c r="B301">
-        <v>0.1197090828658242</v>
+        <v>0.1088355750802472</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -4732,7 +4732,7 @@
         <v>36</v>
       </c>
       <c r="B302">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C302" t="s">
         <v>34</v>
@@ -4743,7 +4743,7 @@
         <v>192</v>
       </c>
       <c r="B303">
-        <v>0.1293035394371294</v>
+        <v>0.08048068808940946</v>
       </c>
       <c r="C303" t="s">
         <v>128</v>
@@ -4754,7 +4754,7 @@
         <v>193</v>
       </c>
       <c r="B304">
-        <v>0.2160492388626309</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -4765,7 +4765,7 @@
         <v>194</v>
       </c>
       <c r="B305">
-        <v>0.1703324913935379</v>
+        <v>0.1576913935163851</v>
       </c>
       <c r="C305" t="s">
         <v>103</v>
@@ -4776,7 +4776,7 @@
         <v>195</v>
       </c>
       <c r="B306">
-        <v>0.1632343087022717</v>
+        <v>0.1712685083613177</v>
       </c>
       <c r="C306" t="s">
         <v>196</v>
@@ -4787,7 +4787,7 @@
         <v>197</v>
       </c>
       <c r="B307">
-        <v>0.2233299943059129</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C307" t="s">
         <v>4</v>
@@ -4798,7 +4798,7 @@
         <v>198</v>
       </c>
       <c r="B308">
-        <v>0.1039420414352226</v>
+        <v>0.09596094248461191</v>
       </c>
       <c r="C308" t="s">
         <v>11</v>
@@ -4809,7 +4809,7 @@
         <v>23</v>
       </c>
       <c r="B309">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C309" t="s">
         <v>11</v>
@@ -4820,7 +4820,7 @@
         <v>199</v>
       </c>
       <c r="B310">
-        <v>0.08903593217983054</v>
+        <v>0.1033971247651797</v>
       </c>
       <c r="C310" t="s">
         <v>66</v>
@@ -4831,7 +4831,7 @@
         <v>200</v>
       </c>
       <c r="B311">
-        <v>0.148118369472498</v>
+        <v>0.1446365580905132</v>
       </c>
       <c r="C311" t="s">
         <v>8</v>
@@ -4842,7 +4842,7 @@
         <v>201</v>
       </c>
       <c r="B312">
-        <v>0.1873719855042872</v>
+        <v>0.2004557931576172</v>
       </c>
       <c r="C312" t="s">
         <v>34</v>
@@ -4853,7 +4853,7 @@
         <v>121</v>
       </c>
       <c r="B313">
-        <v>0.1833782450022188</v>
+        <v>0.2263963946495571</v>
       </c>
       <c r="C313" t="s">
         <v>122</v>
@@ -4875,7 +4875,7 @@
         <v>78</v>
       </c>
       <c r="B315">
-        <v>0.2808842517870301</v>
+        <v>0.2834873013397581</v>
       </c>
       <c r="C315" t="s">
         <v>8</v>
@@ -4886,7 +4886,7 @@
         <v>79</v>
       </c>
       <c r="B316">
-        <v>0.3013520950363157</v>
+        <v>0.3961702187751452</v>
       </c>
       <c r="C316" t="s">
         <v>8</v>
@@ -4897,7 +4897,7 @@
         <v>36</v>
       </c>
       <c r="B317">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C317" t="s">
         <v>34</v>
@@ -4908,7 +4908,7 @@
         <v>192</v>
       </c>
       <c r="B318">
-        <v>0.1293035394371294</v>
+        <v>0.08048068808940946</v>
       </c>
       <c r="C318" t="s">
         <v>128</v>
@@ -4919,7 +4919,7 @@
         <v>19</v>
       </c>
       <c r="B319">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -4930,7 +4930,7 @@
         <v>202</v>
       </c>
       <c r="B320">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C320" t="s">
         <v>4</v>
@@ -4941,7 +4941,7 @@
         <v>39</v>
       </c>
       <c r="B321">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C321" t="s">
         <v>40</v>
@@ -4952,7 +4952,7 @@
         <v>19</v>
       </c>
       <c r="B322">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
@@ -4963,7 +4963,7 @@
         <v>203</v>
       </c>
       <c r="B323">
-        <v>0.1792043189875632</v>
+        <v>0.1826151182382715</v>
       </c>
       <c r="C323" t="s">
         <v>103</v>
@@ -4974,7 +4974,7 @@
         <v>204</v>
       </c>
       <c r="B324">
-        <v>0.1865757211421694</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C324" t="s">
         <v>8</v>
@@ -4985,7 +4985,7 @@
         <v>205</v>
       </c>
       <c r="B325">
-        <v>0.1759475069604423</v>
+        <v>0.1699165931156645</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -4996,7 +4996,7 @@
         <v>80</v>
       </c>
       <c r="B326">
-        <v>0.2699121101836027</v>
+        <v>0.2948839123097942</v>
       </c>
       <c r="C326" t="s">
         <v>8</v>
@@ -5007,7 +5007,7 @@
         <v>164</v>
       </c>
       <c r="B327">
-        <v>0.2354420178624285</v>
+        <v>0.3471996184205107</v>
       </c>
       <c r="C327" t="s">
         <v>4</v>
@@ -5018,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="B328">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C328" t="s">
         <v>11</v>
@@ -5040,7 +5040,7 @@
         <v>206</v>
       </c>
       <c r="B330">
-        <v>0.1822834629590016</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C330" t="s">
         <v>4</v>
@@ -5051,7 +5051,7 @@
         <v>37</v>
       </c>
       <c r="B331">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C331" t="s">
         <v>103</v>
@@ -5062,7 +5062,7 @@
         <v>207</v>
       </c>
       <c r="B332">
-        <v>0.1067577778274877</v>
+        <v>0.1092112695077533</v>
       </c>
       <c r="C332" t="s">
         <v>103</v>
@@ -5073,7 +5073,7 @@
         <v>37</v>
       </c>
       <c r="B333">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C333" t="s">
         <v>11</v>
@@ -5095,7 +5095,7 @@
         <v>208</v>
       </c>
       <c r="B335">
-        <v>0.2085144140570748</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C335" t="s">
         <v>4</v>
@@ -5106,7 +5106,7 @@
         <v>23</v>
       </c>
       <c r="B336">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C336" t="s">
         <v>11</v>
@@ -5117,7 +5117,7 @@
         <v>209</v>
       </c>
       <c r="B337">
-        <v>0.1317048311146408</v>
+        <v>0.1453434072524114</v>
       </c>
       <c r="C337" t="s">
         <v>8</v>
@@ -5128,7 +5128,7 @@
         <v>36</v>
       </c>
       <c r="B338">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C338" t="s">
         <v>34</v>
@@ -5139,7 +5139,7 @@
         <v>10</v>
       </c>
       <c r="B339">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C339" t="s">
         <v>11</v>
@@ -5150,7 +5150,7 @@
         <v>210</v>
       </c>
       <c r="B340">
-        <v>0.1561098228210929</v>
+        <v>0.1283328902008352</v>
       </c>
       <c r="C340" t="s">
         <v>8</v>
@@ -5161,7 +5161,7 @@
         <v>24</v>
       </c>
       <c r="B341">
-        <v>0.1728688925637532</v>
+        <v>0.2507058499193394</v>
       </c>
       <c r="C341" t="s">
         <v>8</v>
@@ -5172,7 +5172,7 @@
         <v>25</v>
       </c>
       <c r="B342">
-        <v>0.2920513454669805</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C342" t="s">
         <v>8</v>
@@ -5183,7 +5183,7 @@
         <v>211</v>
       </c>
       <c r="B343">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C343" t="s">
         <v>34</v>
@@ -5194,7 +5194,7 @@
         <v>212</v>
       </c>
       <c r="B344">
-        <v>0.2107309610626576</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C344" t="s">
         <v>103</v>
@@ -5205,7 +5205,7 @@
         <v>213</v>
       </c>
       <c r="B345">
-        <v>0.2014373583973602</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C345" t="s">
         <v>8</v>
@@ -5216,7 +5216,7 @@
         <v>30</v>
       </c>
       <c r="B346">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C346" t="s">
         <v>31</v>
@@ -5227,7 +5227,7 @@
         <v>214</v>
       </c>
       <c r="B347">
-        <v>0.2046827350270911</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C347" t="s">
         <v>42</v>
@@ -5249,7 +5249,7 @@
         <v>76</v>
       </c>
       <c r="B349">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C349" t="s">
         <v>4</v>
@@ -5260,7 +5260,7 @@
         <v>23</v>
       </c>
       <c r="B350">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C350" t="s">
         <v>11</v>
@@ -5282,7 +5282,7 @@
         <v>215</v>
       </c>
       <c r="B352">
-        <v>0.06809234938927704</v>
+        <v>0.05957101254815629</v>
       </c>
       <c r="C352" t="s">
         <v>6</v>
@@ -5293,7 +5293,7 @@
         <v>216</v>
       </c>
       <c r="B353">
-        <v>0.1114575260849496</v>
+        <v>0.1187779272265845</v>
       </c>
       <c r="C353" t="s">
         <v>72</v>
@@ -5304,7 +5304,7 @@
         <v>217</v>
       </c>
       <c r="B354">
-        <v>0.1613875174110684</v>
+        <v>0.1890272950800261</v>
       </c>
       <c r="C354" t="s">
         <v>8</v>
@@ -5315,7 +5315,7 @@
         <v>121</v>
       </c>
       <c r="B355">
-        <v>0.1833782450022188</v>
+        <v>0.2263963946495571</v>
       </c>
       <c r="C355" t="s">
         <v>122</v>
@@ -5326,7 +5326,7 @@
         <v>218</v>
       </c>
       <c r="B356">
-        <v>0.1602190938483747</v>
+        <v>0.1616499111449796</v>
       </c>
       <c r="C356" t="s">
         <v>103</v>
@@ -5337,7 +5337,7 @@
         <v>53</v>
       </c>
       <c r="B357">
-        <v>0.1916653971717538</v>
+        <v>0.2045469820665678</v>
       </c>
       <c r="C357" t="s">
         <v>11</v>
@@ -5348,7 +5348,7 @@
         <v>219</v>
       </c>
       <c r="B358">
-        <v>0.1552264916020885</v>
+        <v>0.1566883503119498</v>
       </c>
       <c r="C358" t="s">
         <v>34</v>
@@ -5359,7 +5359,7 @@
         <v>220</v>
       </c>
       <c r="B359">
-        <v>0.2029988305553369</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C359" t="s">
         <v>18</v>
@@ -5370,7 +5370,7 @@
         <v>39</v>
       </c>
       <c r="B360">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C360" t="s">
         <v>40</v>
@@ -5381,7 +5381,7 @@
         <v>182</v>
       </c>
       <c r="B361">
-        <v>0.07715549947440452</v>
+        <v>0.05057927144444654</v>
       </c>
       <c r="C361" t="s">
         <v>42</v>
@@ -5392,7 +5392,7 @@
         <v>221</v>
       </c>
       <c r="B362">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C362" t="s">
         <v>8</v>
@@ -5403,7 +5403,7 @@
         <v>222</v>
       </c>
       <c r="B363">
-        <v>0.2195234096632669</v>
+        <v>0.2190136547023699</v>
       </c>
       <c r="C363" t="s">
         <v>103</v>
@@ -5414,7 +5414,7 @@
         <v>223</v>
       </c>
       <c r="B364">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C364" t="s">
         <v>72</v>
@@ -5425,7 +5425,7 @@
         <v>224</v>
       </c>
       <c r="B365">
-        <v>0.1986151591671186</v>
+        <v>0.1914987225929675</v>
       </c>
       <c r="C365" t="s">
         <v>34</v>
@@ -5436,7 +5436,7 @@
         <v>225</v>
       </c>
       <c r="B366">
-        <v>0.1531222609353441</v>
+        <v>0.1616499111449796</v>
       </c>
       <c r="C366" t="s">
         <v>72</v>
@@ -5458,7 +5458,7 @@
         <v>76</v>
       </c>
       <c r="B368">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C368" t="s">
         <v>4</v>
@@ -5469,7 +5469,7 @@
         <v>23</v>
       </c>
       <c r="B369">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C369" t="s">
         <v>11</v>
@@ -5491,7 +5491,7 @@
         <v>39</v>
       </c>
       <c r="B371">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C371" t="s">
         <v>40</v>
@@ -5513,7 +5513,7 @@
         <v>226</v>
       </c>
       <c r="B373">
-        <v>0.1843345682304112</v>
+        <v>0.197154590894389</v>
       </c>
       <c r="C373" t="s">
         <v>8</v>
@@ -5524,7 +5524,7 @@
         <v>227</v>
       </c>
       <c r="B374">
-        <v>0.1836315059906379</v>
+        <v>0.1941914909599574</v>
       </c>
       <c r="C374" t="s">
         <v>4</v>
@@ -5535,7 +5535,7 @@
         <v>23</v>
       </c>
       <c r="B375">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C375" t="s">
         <v>11</v>
@@ -5546,7 +5546,7 @@
         <v>228</v>
       </c>
       <c r="B376">
-        <v>0.2132160064661374</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -5557,7 +5557,7 @@
         <v>229</v>
       </c>
       <c r="B377">
-        <v>0.2160492388626309</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C377" t="s">
         <v>8</v>
@@ -5568,7 +5568,7 @@
         <v>121</v>
       </c>
       <c r="B378">
-        <v>0.1833782450022188</v>
+        <v>0.2263963946495571</v>
       </c>
       <c r="C378" t="s">
         <v>122</v>
@@ -5579,7 +5579,7 @@
         <v>19</v>
       </c>
       <c r="B379">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C379" t="s">
         <v>14</v>
@@ -5590,7 +5590,7 @@
         <v>230</v>
       </c>
       <c r="B380">
-        <v>0.110168879446649</v>
+        <v>0.1159046722079508</v>
       </c>
       <c r="C380" t="s">
         <v>103</v>
@@ -5601,7 +5601,7 @@
         <v>231</v>
       </c>
       <c r="B381">
-        <v>0.2326887004162512</v>
+        <v>0.2242913869205521</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
@@ -5612,7 +5612,7 @@
         <v>232</v>
       </c>
       <c r="B382">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C382" t="s">
         <v>4</v>
@@ -5623,7 +5623,7 @@
         <v>10</v>
       </c>
       <c r="B383">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C383" t="s">
         <v>11</v>
@@ -5634,7 +5634,7 @@
         <v>45</v>
       </c>
       <c r="B384">
-        <v>0.1410817817047395</v>
+        <v>0.1124420832490857</v>
       </c>
       <c r="C384" t="s">
         <v>14</v>
@@ -5645,7 +5645,7 @@
         <v>233</v>
       </c>
       <c r="B385">
-        <v>0.2046827350270911</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C385" t="s">
         <v>103</v>
@@ -5656,7 +5656,7 @@
         <v>234</v>
       </c>
       <c r="B386">
-        <v>0.2014373583973602</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C386" t="s">
         <v>8</v>
@@ -5667,7 +5667,7 @@
         <v>235</v>
       </c>
       <c r="B387">
-        <v>0.1613875174110684</v>
+        <v>0.1712685083613177</v>
       </c>
       <c r="C387" t="s">
         <v>4</v>
@@ -5689,7 +5689,7 @@
         <v>236</v>
       </c>
       <c r="B389">
-        <v>0.1858051899188837</v>
+        <v>0.2004557931576172</v>
       </c>
       <c r="C389" t="s">
         <v>4</v>
@@ -5700,7 +5700,7 @@
         <v>23</v>
       </c>
       <c r="B390">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C390" t="s">
         <v>11</v>
@@ -5711,7 +5711,7 @@
         <v>109</v>
       </c>
       <c r="B391">
-        <v>0.1562461959591414</v>
+        <v>0.1365720641415993</v>
       </c>
       <c r="C391" t="s">
         <v>66</v>
@@ -5722,7 +5722,7 @@
         <v>237</v>
       </c>
       <c r="B392">
-        <v>0.1468067995123343</v>
+        <v>0.1172593440218644</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         <v>238</v>
       </c>
       <c r="B393">
-        <v>0.1949602843229294</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C393" t="s">
         <v>4</v>
@@ -5744,7 +5744,7 @@
         <v>239</v>
       </c>
       <c r="B394">
-        <v>0.1574873962829125</v>
+        <v>0.1756717869591919</v>
       </c>
       <c r="C394" t="s">
         <v>18</v>
@@ -5755,7 +5755,7 @@
         <v>19</v>
       </c>
       <c r="B395">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C395" t="s">
         <v>14</v>
@@ -5766,7 +5766,7 @@
         <v>240</v>
       </c>
       <c r="B396">
-        <v>0.2085144140570748</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C396" t="s">
         <v>4</v>
@@ -5777,7 +5777,7 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>0.2676172803117076</v>
+        <v>0.2469552817098144</v>
       </c>
       <c r="C397" t="s">
         <v>4</v>
@@ -5788,7 +5788,7 @@
         <v>241</v>
       </c>
       <c r="B398">
-        <v>0.1018982006533677</v>
+        <v>0.1363083134385576</v>
       </c>
       <c r="C398" t="s">
         <v>11</v>
@@ -5810,7 +5810,7 @@
         <v>76</v>
       </c>
       <c r="B400">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C400" t="s">
         <v>4</v>
@@ -5821,7 +5821,7 @@
         <v>23</v>
       </c>
       <c r="B401">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C401" t="s">
         <v>11</v>
@@ -5865,7 +5865,7 @@
         <v>242</v>
       </c>
       <c r="B405">
-        <v>0.178071607455993</v>
+        <v>0.197154590894389</v>
       </c>
       <c r="C405" t="s">
         <v>243</v>
@@ -5876,7 +5876,7 @@
         <v>38</v>
       </c>
       <c r="B406">
-        <v>0.1976918439171908</v>
+        <v>0.2021915031234337</v>
       </c>
       <c r="C406" t="s">
         <v>4</v>
@@ -5887,7 +5887,7 @@
         <v>23</v>
       </c>
       <c r="B407">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C407" t="s">
         <v>11</v>
@@ -5909,7 +5909,7 @@
         <v>244</v>
       </c>
       <c r="B409">
-        <v>0.1590957947113859</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C409" t="s">
         <v>4</v>
@@ -5920,7 +5920,7 @@
         <v>39</v>
       </c>
       <c r="B410">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C410" t="s">
         <v>40</v>
@@ -5942,7 +5942,7 @@
         <v>215</v>
       </c>
       <c r="B412">
-        <v>0.06809234938927704</v>
+        <v>0.05957101254815629</v>
       </c>
       <c r="C412" t="s">
         <v>6</v>
@@ -5953,7 +5953,7 @@
         <v>245</v>
       </c>
       <c r="B413">
-        <v>0.1531222609353441</v>
+        <v>0.1453434072524114</v>
       </c>
       <c r="C413" t="s">
         <v>103</v>
@@ -5964,7 +5964,7 @@
         <v>216</v>
       </c>
       <c r="B414">
-        <v>0.1114575260849496</v>
+        <v>0.1187779272265845</v>
       </c>
       <c r="C414" t="s">
         <v>72</v>
@@ -5975,7 +5975,7 @@
         <v>246</v>
       </c>
       <c r="B415">
-        <v>0.2014373583973602</v>
+        <v>0.2004557931576172</v>
       </c>
       <c r="C415" t="s">
         <v>72</v>
@@ -5986,7 +5986,7 @@
         <v>247</v>
       </c>
       <c r="B416">
-        <v>0.2160492388626309</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C416" t="s">
         <v>4</v>
@@ -5997,7 +5997,7 @@
         <v>248</v>
       </c>
       <c r="B417">
-        <v>0.1441249477688917</v>
+        <v>0.1661435323551922</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
@@ -6008,7 +6008,7 @@
         <v>249</v>
       </c>
       <c r="B418">
-        <v>0.1873719855042872</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C418" t="s">
         <v>34</v>
@@ -6019,7 +6019,7 @@
         <v>127</v>
       </c>
       <c r="B419">
-        <v>0.1072500202186333</v>
+        <v>0.08647140868087302</v>
       </c>
       <c r="C419" t="s">
         <v>128</v>
@@ -6030,7 +6030,7 @@
         <v>250</v>
       </c>
       <c r="B420">
-        <v>0.1684638620189691</v>
+        <v>0.1772758065611018</v>
       </c>
       <c r="C420" t="s">
         <v>72</v>
@@ -6041,7 +6041,7 @@
         <v>251</v>
       </c>
       <c r="B421">
-        <v>0.1816362542669238</v>
+        <v>0.1826151182382715</v>
       </c>
       <c r="C421" t="s">
         <v>34</v>
@@ -6052,7 +6052,7 @@
         <v>137</v>
       </c>
       <c r="B422">
-        <v>0.08555786669002273</v>
+        <v>0.03528553786282437</v>
       </c>
       <c r="C422" t="s">
         <v>11</v>
@@ -6085,7 +6085,7 @@
         <v>26</v>
       </c>
       <c r="B425">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
@@ -6096,7 +6096,7 @@
         <v>252</v>
       </c>
       <c r="B426">
-        <v>0.206511486834357</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
@@ -6107,7 +6107,7 @@
         <v>253</v>
       </c>
       <c r="B427">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C427" t="s">
         <v>4</v>
@@ -6118,7 +6118,7 @@
         <v>254</v>
       </c>
       <c r="B428">
-        <v>0.08763350683097387</v>
+        <v>0.06244664674395557</v>
       </c>
       <c r="C428" t="s">
         <v>31</v>
@@ -6129,7 +6129,7 @@
         <v>194</v>
       </c>
       <c r="B429">
-        <v>0.1703324913935379</v>
+        <v>0.1576913935163851</v>
       </c>
       <c r="C429" t="s">
         <v>103</v>
@@ -6140,7 +6140,7 @@
         <v>137</v>
       </c>
       <c r="B430">
-        <v>0.08555786669002273</v>
+        <v>0.03528553786282437</v>
       </c>
       <c r="C430" t="s">
         <v>11</v>
@@ -6162,7 +6162,7 @@
         <v>32</v>
       </c>
       <c r="B432">
-        <v>0.427131536540869</v>
+        <v>0.4198506507970658</v>
       </c>
       <c r="C432" t="s">
         <v>8</v>
@@ -6173,7 +6173,7 @@
         <v>33</v>
       </c>
       <c r="B433">
-        <v>0.3245377988084846</v>
+        <v>0.3016200970885012</v>
       </c>
       <c r="C433" t="s">
         <v>34</v>
@@ -6184,7 +6184,7 @@
         <v>255</v>
       </c>
       <c r="B434">
-        <v>0.1108474168424896</v>
+        <v>0.1233285959403132</v>
       </c>
       <c r="C434" t="s">
         <v>167</v>
@@ -6195,7 +6195,7 @@
         <v>256</v>
       </c>
       <c r="B435">
-        <v>0.2416484282992147</v>
+        <v>0.2530888026622763</v>
       </c>
       <c r="C435" t="s">
         <v>42</v>
@@ -6206,7 +6206,7 @@
         <v>257</v>
       </c>
       <c r="B436">
-        <v>0.1533490800035958</v>
+        <v>0.1941914909599574</v>
       </c>
       <c r="C436" t="s">
         <v>4</v>
@@ -6217,7 +6217,7 @@
         <v>258</v>
       </c>
       <c r="B437">
-        <v>0.2405777162179812</v>
+        <v>0.2435443886760014</v>
       </c>
       <c r="C437" t="s">
         <v>34</v>
@@ -6228,7 +6228,7 @@
         <v>259</v>
       </c>
       <c r="B438">
-        <v>0.1442964523547768</v>
+        <v>0.132895500760979</v>
       </c>
       <c r="C438" t="s">
         <v>34</v>
@@ -6239,7 +6239,7 @@
         <v>237</v>
       </c>
       <c r="B439">
-        <v>0.1468067995123343</v>
+        <v>0.1172593440218644</v>
       </c>
       <c r="C439" t="s">
         <v>8</v>
@@ -6250,7 +6250,7 @@
         <v>37</v>
       </c>
       <c r="B440">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C440" t="s">
         <v>11</v>
@@ -6272,7 +6272,7 @@
         <v>260</v>
       </c>
       <c r="B442">
-        <v>0.2107309610626576</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C442" t="s">
         <v>103</v>
@@ -6283,7 +6283,7 @@
         <v>261</v>
       </c>
       <c r="B443">
-        <v>0.1666088606948561</v>
+        <v>0.1890272950800261</v>
       </c>
       <c r="C443" t="s">
         <v>4</v>
@@ -6294,7 +6294,7 @@
         <v>23</v>
       </c>
       <c r="B444">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C444" t="s">
         <v>11</v>
@@ -6316,7 +6316,7 @@
         <v>262</v>
       </c>
       <c r="B446">
-        <v>0.1632343087022717</v>
+        <v>0.197154590894389</v>
       </c>
       <c r="C446" t="s">
         <v>4</v>
@@ -6327,7 +6327,7 @@
         <v>263</v>
       </c>
       <c r="B447">
-        <v>0.1999807915952935</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C447" t="s">
         <v>4</v>
@@ -6338,7 +6338,7 @@
         <v>23</v>
       </c>
       <c r="B448">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C448" t="s">
         <v>11</v>
@@ -6349,7 +6349,7 @@
         <v>264</v>
       </c>
       <c r="B449">
-        <v>0.2283550350209294</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C449" t="s">
         <v>8</v>
@@ -6360,7 +6360,7 @@
         <v>265</v>
       </c>
       <c r="B450">
-        <v>0.2283550350209294</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C450" t="s">
         <v>34</v>
@@ -6371,7 +6371,7 @@
         <v>127</v>
       </c>
       <c r="B451">
-        <v>0.1072500202186333</v>
+        <v>0.08647140868087302</v>
       </c>
       <c r="C451" t="s">
         <v>128</v>
@@ -6382,7 +6382,7 @@
         <v>266</v>
       </c>
       <c r="B452">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C452" t="s">
         <v>72</v>
@@ -6404,7 +6404,7 @@
         <v>267</v>
       </c>
       <c r="B454">
-        <v>0.1250218586929427</v>
+        <v>0.1291764992190834</v>
       </c>
       <c r="C454" t="s">
         <v>4</v>
@@ -6415,7 +6415,7 @@
         <v>37</v>
       </c>
       <c r="B455">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C455" t="s">
         <v>11</v>
@@ -6426,7 +6426,7 @@
         <v>57</v>
       </c>
       <c r="B456">
-        <v>0.1185505689260276</v>
+        <v>0.1135751085110706</v>
       </c>
       <c r="C456" t="s">
         <v>14</v>
@@ -6437,7 +6437,7 @@
         <v>268</v>
       </c>
       <c r="B457">
-        <v>0.1349951979118456</v>
+        <v>0.1345733884541166</v>
       </c>
       <c r="C457" t="s">
         <v>8</v>
@@ -6448,7 +6448,7 @@
         <v>269</v>
       </c>
       <c r="B458">
-        <v>0.2195234096632669</v>
+        <v>0.2242913869205521</v>
       </c>
       <c r="C458" t="s">
         <v>4</v>
@@ -6459,7 +6459,7 @@
         <v>270</v>
       </c>
       <c r="B459">
-        <v>0.2511323720110152</v>
+        <v>0.3070507039165803</v>
       </c>
       <c r="C459" t="s">
         <v>103</v>
@@ -6470,7 +6470,7 @@
         <v>45</v>
       </c>
       <c r="B460">
-        <v>0.1410817817047395</v>
+        <v>0.1124420832490857</v>
       </c>
       <c r="C460" t="s">
         <v>14</v>
@@ -6481,7 +6481,7 @@
         <v>271</v>
       </c>
       <c r="B461">
-        <v>0.305641488217235</v>
+        <v>0.2877690393881565</v>
       </c>
       <c r="C461" t="s">
         <v>4</v>
@@ -6492,7 +6492,7 @@
         <v>23</v>
       </c>
       <c r="B462">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C462" t="s">
         <v>11</v>
@@ -6514,7 +6514,7 @@
         <v>215</v>
       </c>
       <c r="B464">
-        <v>0.06809234938927704</v>
+        <v>0.05957101254815629</v>
       </c>
       <c r="C464" t="s">
         <v>6</v>
@@ -6525,7 +6525,7 @@
         <v>216</v>
       </c>
       <c r="B465">
-        <v>0.1114575260849496</v>
+        <v>0.1187779272265845</v>
       </c>
       <c r="C465" t="s">
         <v>72</v>
@@ -6536,7 +6536,7 @@
         <v>152</v>
       </c>
       <c r="B466">
-        <v>0.1700713348953152</v>
+        <v>0.1370994290149918</v>
       </c>
       <c r="C466" t="s">
         <v>72</v>
@@ -6547,7 +6547,7 @@
         <v>10</v>
       </c>
       <c r="B467">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C467" t="s">
         <v>11</v>
@@ -6558,7 +6558,7 @@
         <v>93</v>
       </c>
       <c r="B468">
-        <v>0.1506802392032524</v>
+        <v>0.1236693791382344</v>
       </c>
       <c r="C468" t="s">
         <v>8</v>
@@ -6569,7 +6569,7 @@
         <v>36</v>
       </c>
       <c r="B469">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C469" t="s">
         <v>34</v>
@@ -6580,7 +6580,7 @@
         <v>10</v>
       </c>
       <c r="B470">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C470" t="s">
         <v>11</v>
@@ -6602,7 +6602,7 @@
         <v>272</v>
       </c>
       <c r="B472">
-        <v>0.09781539422533071</v>
+        <v>0.09927309245091806</v>
       </c>
       <c r="C472" t="s">
         <v>4</v>
@@ -6613,7 +6613,7 @@
         <v>10</v>
       </c>
       <c r="B473">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C473" t="s">
         <v>11</v>
@@ -6624,7 +6624,7 @@
         <v>273</v>
       </c>
       <c r="B474">
-        <v>0.1419706726687744</v>
+        <v>0.1539847624982704</v>
       </c>
       <c r="C474" t="s">
         <v>34</v>
@@ -6635,7 +6635,7 @@
         <v>37</v>
       </c>
       <c r="B475">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C475" t="s">
         <v>103</v>
@@ -6646,7 +6646,7 @@
         <v>274</v>
       </c>
       <c r="B476">
-        <v>0.2160492388626309</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C476" t="s">
         <v>18</v>
@@ -6657,7 +6657,7 @@
         <v>37</v>
       </c>
       <c r="B477">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C477" t="s">
         <v>11</v>
@@ -6668,7 +6668,7 @@
         <v>275</v>
       </c>
       <c r="B478">
-        <v>0.3015329680594411</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C478" t="s">
         <v>4</v>
@@ -6679,7 +6679,7 @@
         <v>276</v>
       </c>
       <c r="B479">
-        <v>0.1436155903360126</v>
+        <v>0.1807366431845616</v>
       </c>
       <c r="C479" t="s">
         <v>4</v>
@@ -6690,7 +6690,7 @@
         <v>277</v>
       </c>
       <c r="B480">
-        <v>0.1574873962829125</v>
+        <v>0.2085144140570747</v>
       </c>
       <c r="C480" t="s">
         <v>8</v>
@@ -6701,7 +6701,7 @@
         <v>278</v>
       </c>
       <c r="B481">
-        <v>0.1928166118057493</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C481" t="s">
         <v>4</v>
@@ -6712,7 +6712,7 @@
         <v>30</v>
       </c>
       <c r="B482">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C482" t="s">
         <v>31</v>
@@ -6723,7 +6723,7 @@
         <v>279</v>
       </c>
       <c r="B483">
-        <v>0.1973291401291344</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C483" t="s">
         <v>42</v>
@@ -6745,7 +6745,7 @@
         <v>210</v>
       </c>
       <c r="B485">
-        <v>0.1561098228210929</v>
+        <v>0.1283328902008352</v>
       </c>
       <c r="C485" t="s">
         <v>8</v>
@@ -6756,7 +6756,7 @@
         <v>231</v>
       </c>
       <c r="B486">
-        <v>0.2326887004162512</v>
+        <v>0.2242913869205521</v>
       </c>
       <c r="C486" t="s">
         <v>8</v>
@@ -6767,7 +6767,7 @@
         <v>271</v>
       </c>
       <c r="B487">
-        <v>0.305641488217235</v>
+        <v>0.2877690393881565</v>
       </c>
       <c r="C487" t="s">
         <v>4</v>
@@ -6778,7 +6778,7 @@
         <v>23</v>
       </c>
       <c r="B488">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C488" t="s">
         <v>11</v>
@@ -6800,7 +6800,7 @@
         <v>10</v>
       </c>
       <c r="B490">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C490" t="s">
         <v>11</v>
@@ -6811,7 +6811,7 @@
         <v>36</v>
       </c>
       <c r="B491">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C491" t="s">
         <v>34</v>
@@ -6822,7 +6822,7 @@
         <v>26</v>
       </c>
       <c r="B492">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C492" t="s">
         <v>6</v>
@@ -6833,7 +6833,7 @@
         <v>280</v>
       </c>
       <c r="B493">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C493" t="s">
         <v>8</v>
@@ -6844,7 +6844,7 @@
         <v>145</v>
       </c>
       <c r="B494">
-        <v>0.2894650998589308</v>
+        <v>0.3234716290952953</v>
       </c>
       <c r="C494" t="s">
         <v>8</v>
@@ -6866,7 +6866,7 @@
         <v>121</v>
       </c>
       <c r="B496">
-        <v>0.1833782450022188</v>
+        <v>0.2263963946495571</v>
       </c>
       <c r="C496" t="s">
         <v>122</v>
@@ -6877,7 +6877,7 @@
         <v>281</v>
       </c>
       <c r="B497">
-        <v>0.04958476391840166</v>
+        <v>0.05280295653640553</v>
       </c>
       <c r="C497" t="s">
         <v>31</v>
@@ -6888,7 +6888,7 @@
         <v>37</v>
       </c>
       <c r="B498">
-        <v>0.1521433224972079</v>
+        <v>0.108761291153495</v>
       </c>
       <c r="C498" t="s">
         <v>11</v>
@@ -6910,7 +6910,7 @@
         <v>36</v>
       </c>
       <c r="B500">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C500" t="s">
         <v>34</v>
@@ -6921,7 +6921,7 @@
         <v>10</v>
       </c>
       <c r="B501">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C501" t="s">
         <v>11</v>
@@ -6932,7 +6932,7 @@
         <v>282</v>
       </c>
       <c r="B502">
-        <v>0.1986151591671186</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C502" t="s">
         <v>4</v>
@@ -6943,7 +6943,7 @@
         <v>283</v>
       </c>
       <c r="B503">
-        <v>0.1451673374282108</v>
+        <v>0.1514487481475657</v>
       </c>
       <c r="C503" t="s">
         <v>18</v>
@@ -6954,7 +6954,7 @@
         <v>284</v>
       </c>
       <c r="B504">
-        <v>0.2132160064661374</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C504" t="s">
         <v>8</v>
@@ -6965,7 +6965,7 @@
         <v>76</v>
       </c>
       <c r="B505">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C505" t="s">
         <v>4</v>
@@ -6976,7 +6976,7 @@
         <v>23</v>
       </c>
       <c r="B506">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C506" t="s">
         <v>11</v>
@@ -6987,7 +6987,7 @@
         <v>45</v>
       </c>
       <c r="B507">
-        <v>0.1410817817047395</v>
+        <v>0.1124420832490857</v>
       </c>
       <c r="C507" t="s">
         <v>14</v>
@@ -6998,7 +6998,7 @@
         <v>271</v>
       </c>
       <c r="B508">
-        <v>0.305641488217235</v>
+        <v>0.2877690393881565</v>
       </c>
       <c r="C508" t="s">
         <v>4</v>
@@ -7009,7 +7009,7 @@
         <v>23</v>
       </c>
       <c r="B509">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C509" t="s">
         <v>11</v>
@@ -7031,7 +7031,7 @@
         <v>285</v>
       </c>
       <c r="B511">
-        <v>0.08898158514777459</v>
+        <v>0.06332795650301939</v>
       </c>
       <c r="C511" t="s">
         <v>167</v>
@@ -7042,7 +7042,7 @@
         <v>256</v>
       </c>
       <c r="B512">
-        <v>0.2416484282992147</v>
+        <v>0.2530888026622763</v>
       </c>
       <c r="C512" t="s">
         <v>42</v>
@@ -7053,7 +7053,7 @@
         <v>286</v>
       </c>
       <c r="B513">
-        <v>0.182948192496717</v>
+        <v>0.2041928233018406</v>
       </c>
       <c r="C513" t="s">
         <v>8</v>
@@ -7064,7 +7064,7 @@
         <v>258</v>
       </c>
       <c r="B514">
-        <v>0.2405777162179812</v>
+        <v>0.2435443886760014</v>
       </c>
       <c r="C514" t="s">
         <v>34</v>
@@ -7086,7 +7086,7 @@
         <v>76</v>
       </c>
       <c r="B516">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C516" t="s">
         <v>4</v>
@@ -7097,7 +7097,7 @@
         <v>23</v>
       </c>
       <c r="B517">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C517" t="s">
         <v>11</v>
@@ -7108,7 +7108,7 @@
         <v>29</v>
       </c>
       <c r="B518">
-        <v>0.2948839123097943</v>
+        <v>0.2834873013397581</v>
       </c>
       <c r="C518" t="s">
         <v>8</v>
@@ -7130,7 +7130,7 @@
         <v>26</v>
       </c>
       <c r="B520">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C520" t="s">
         <v>6</v>
@@ -7141,7 +7141,7 @@
         <v>136</v>
       </c>
       <c r="B521">
-        <v>0.1642223608869795</v>
+        <v>0.1510448991593908</v>
       </c>
       <c r="C521" t="s">
         <v>103</v>
@@ -7152,7 +7152,7 @@
         <v>287</v>
       </c>
       <c r="B522">
-        <v>0.1314630567467903</v>
+        <v>0.1276573112995346</v>
       </c>
       <c r="C522" t="s">
         <v>11</v>
@@ -7163,7 +7163,7 @@
         <v>62</v>
       </c>
       <c r="B523">
-        <v>0.1369366585892279</v>
+        <v>0.11070255972416</v>
       </c>
       <c r="C523" t="s">
         <v>63</v>
@@ -7174,7 +7174,7 @@
         <v>288</v>
       </c>
       <c r="B524">
-        <v>0.1204432597207699</v>
+        <v>0.1099681250387979</v>
       </c>
       <c r="C524" t="s">
         <v>8</v>
@@ -7185,7 +7185,7 @@
         <v>258</v>
       </c>
       <c r="B525">
-        <v>0.2405777162179812</v>
+        <v>0.2435443886760014</v>
       </c>
       <c r="C525" t="s">
         <v>34</v>
@@ -7196,7 +7196,7 @@
         <v>10</v>
       </c>
       <c r="B526">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C526" t="s">
         <v>11</v>
@@ -7207,7 +7207,7 @@
         <v>289</v>
       </c>
       <c r="B527">
-        <v>0.1053671930025611</v>
+        <v>0.09116480025890779</v>
       </c>
       <c r="C527" t="s">
         <v>243</v>
@@ -7218,7 +7218,7 @@
         <v>36</v>
       </c>
       <c r="B528">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C528" t="s">
         <v>34</v>
@@ -7229,7 +7229,7 @@
         <v>290</v>
       </c>
       <c r="B529">
-        <v>0.1973291401291344</v>
+        <v>0.2041928233018406</v>
       </c>
       <c r="C529" t="s">
         <v>8</v>
@@ -7240,7 +7240,7 @@
         <v>291</v>
       </c>
       <c r="B530">
-        <v>0.2352552544853501</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C530" t="s">
         <v>34</v>
@@ -7251,7 +7251,7 @@
         <v>127</v>
       </c>
       <c r="B531">
-        <v>0.1072500202186333</v>
+        <v>0.08647140868087302</v>
       </c>
       <c r="C531" t="s">
         <v>128</v>
@@ -7262,7 +7262,7 @@
         <v>292</v>
       </c>
       <c r="B532">
-        <v>0.1708712423134459</v>
+        <v>0.1566883503119498</v>
       </c>
       <c r="C532" t="s">
         <v>72</v>
@@ -7273,7 +7273,7 @@
         <v>293</v>
       </c>
       <c r="B533">
-        <v>0.08035375026593466</v>
+        <v>0.07089833110915608</v>
       </c>
       <c r="C533" t="s">
         <v>11</v>
@@ -7284,7 +7284,7 @@
         <v>99</v>
       </c>
       <c r="B534">
-        <v>0.06019823172130713</v>
+        <v>0.03900099962461216</v>
       </c>
       <c r="C534" t="s">
         <v>82</v>
@@ -7295,7 +7295,7 @@
         <v>10</v>
       </c>
       <c r="B535">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C535" t="s">
         <v>11</v>
@@ -7306,7 +7306,7 @@
         <v>275</v>
       </c>
       <c r="B536">
-        <v>0.3015329680594411</v>
+        <v>0.3428066208760849</v>
       </c>
       <c r="C536" t="s">
         <v>4</v>
@@ -7317,7 +7317,7 @@
         <v>294</v>
       </c>
       <c r="B537">
-        <v>0.05586065300068913</v>
+        <v>0.04591850314024535</v>
       </c>
       <c r="C537" t="s">
         <v>11</v>
@@ -7328,7 +7328,7 @@
         <v>295</v>
       </c>
       <c r="B538">
-        <v>0.1564615135418899</v>
+        <v>0.1548660404124947</v>
       </c>
       <c r="C538" t="s">
         <v>4</v>
@@ -7339,7 +7339,7 @@
         <v>49</v>
       </c>
       <c r="B539">
-        <v>0.1638611679575127</v>
+        <v>0.1834126459018474</v>
       </c>
       <c r="C539" t="s">
         <v>14</v>
@@ -7350,7 +7350,7 @@
         <v>296</v>
       </c>
       <c r="B540">
-        <v>0.1850586591985754</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C540" t="s">
         <v>8</v>
@@ -7361,7 +7361,7 @@
         <v>30</v>
       </c>
       <c r="B541">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C541" t="s">
         <v>31</v>
@@ -7372,7 +7372,7 @@
         <v>297</v>
       </c>
       <c r="B542">
-        <v>0.2029988305553369</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C542" t="s">
         <v>8</v>
@@ -7383,7 +7383,7 @@
         <v>298</v>
       </c>
       <c r="B543">
-        <v>0.1626053498565596</v>
+        <v>0.2041928233018406</v>
       </c>
       <c r="C543" t="s">
         <v>34</v>
@@ -7394,7 +7394,7 @@
         <v>299</v>
       </c>
       <c r="B544">
-        <v>0.2014373583973602</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C544" t="s">
         <v>18</v>
@@ -7405,7 +7405,7 @@
         <v>300</v>
       </c>
       <c r="B545">
-        <v>0.0732811395896014</v>
+        <v>0.06126729570129789</v>
       </c>
       <c r="C545" t="s">
         <v>63</v>
@@ -7416,7 +7416,7 @@
         <v>301</v>
       </c>
       <c r="B546">
-        <v>0.2283550350209294</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C546" t="s">
         <v>34</v>
@@ -7427,7 +7427,7 @@
         <v>137</v>
       </c>
       <c r="B547">
-        <v>0.08555786669002273</v>
+        <v>0.03528553786282437</v>
       </c>
       <c r="C547" t="s">
         <v>11</v>
@@ -7438,7 +7438,7 @@
         <v>62</v>
       </c>
       <c r="B548">
-        <v>0.1369366585892279</v>
+        <v>0.11070255972416</v>
       </c>
       <c r="C548" t="s">
         <v>63</v>
@@ -7449,7 +7449,7 @@
         <v>76</v>
       </c>
       <c r="B549">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C549" t="s">
         <v>4</v>
@@ -7460,7 +7460,7 @@
         <v>302</v>
       </c>
       <c r="B550">
-        <v>0.0434647398355348</v>
+        <v>0.05829245501207875</v>
       </c>
       <c r="C550" t="s">
         <v>18</v>
@@ -7471,7 +7471,7 @@
         <v>136</v>
       </c>
       <c r="B551">
-        <v>0.1642223608869795</v>
+        <v>0.1510448991593908</v>
       </c>
       <c r="C551" t="s">
         <v>103</v>
@@ -7482,7 +7482,7 @@
         <v>303</v>
       </c>
       <c r="B552">
-        <v>0.2014373583973602</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C552" t="s">
         <v>8</v>
@@ -7493,7 +7493,7 @@
         <v>39</v>
       </c>
       <c r="B553">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C553" t="s">
         <v>40</v>
@@ -7504,7 +7504,7 @@
         <v>304</v>
       </c>
       <c r="B554">
-        <v>0.2046827350270911</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C554" t="s">
         <v>42</v>
@@ -7515,7 +7515,7 @@
         <v>210</v>
       </c>
       <c r="B555">
-        <v>0.1561098228210929</v>
+        <v>0.1283328902008352</v>
       </c>
       <c r="C555" t="s">
         <v>8</v>
@@ -7526,7 +7526,7 @@
         <v>305</v>
       </c>
       <c r="B556">
-        <v>0.178631599131458</v>
+        <v>0.2004557931576172</v>
       </c>
       <c r="C556" t="s">
         <v>34</v>
@@ -7537,7 +7537,7 @@
         <v>192</v>
       </c>
       <c r="B557">
-        <v>0.1293035394371294</v>
+        <v>0.08048068808940946</v>
       </c>
       <c r="C557" t="s">
         <v>128</v>
@@ -7548,7 +7548,7 @@
         <v>88</v>
       </c>
       <c r="B558">
-        <v>0.2481137654429322</v>
+        <v>0.2673249643608739</v>
       </c>
       <c r="C558" t="s">
         <v>72</v>
@@ -7559,7 +7559,7 @@
         <v>89</v>
       </c>
       <c r="B559">
-        <v>0.1027020478095256</v>
+        <v>0.09206737467227857</v>
       </c>
       <c r="C559" t="s">
         <v>11</v>
@@ -7570,7 +7570,7 @@
         <v>306</v>
       </c>
       <c r="B560">
-        <v>0.1129378371183484</v>
+        <v>0.09628764372859897</v>
       </c>
       <c r="C560" t="s">
         <v>307</v>
@@ -7581,7 +7581,7 @@
         <v>39</v>
       </c>
       <c r="B561">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C561" t="s">
         <v>40</v>
@@ -7592,7 +7592,7 @@
         <v>308</v>
       </c>
       <c r="B562">
-        <v>0.1810055934078777</v>
+        <v>0.1789608086048795</v>
       </c>
       <c r="C562" t="s">
         <v>42</v>
@@ -7625,7 +7625,7 @@
         <v>121</v>
       </c>
       <c r="B565">
-        <v>0.1833782450022188</v>
+        <v>0.2263963946495571</v>
       </c>
       <c r="C565" t="s">
         <v>122</v>
@@ -7636,7 +7636,7 @@
         <v>309</v>
       </c>
       <c r="B566">
-        <v>0.1810055934078777</v>
+        <v>0.1846105621253322</v>
       </c>
       <c r="C566" t="s">
         <v>8</v>
@@ -7647,7 +7647,7 @@
         <v>310</v>
       </c>
       <c r="B567">
-        <v>0.1961134296023767</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C567" t="s">
         <v>8</v>
@@ -7658,7 +7658,7 @@
         <v>311</v>
       </c>
       <c r="B568">
-        <v>0.2029988305553369</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C568" t="s">
         <v>34</v>
@@ -7669,7 +7669,7 @@
         <v>312</v>
       </c>
       <c r="B569">
-        <v>0.2352552544853501</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C569" t="s">
         <v>34</v>
@@ -7680,7 +7680,7 @@
         <v>30</v>
       </c>
       <c r="B570">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C570" t="s">
         <v>31</v>
@@ -7691,7 +7691,7 @@
         <v>313</v>
       </c>
       <c r="B571">
-        <v>0.2132160064661374</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C571" t="s">
         <v>4</v>
@@ -7702,7 +7702,7 @@
         <v>314</v>
       </c>
       <c r="B572">
-        <v>0.1540397125531355</v>
+        <v>0.143255103686574</v>
       </c>
       <c r="C572" t="s">
         <v>34</v>
@@ -7713,7 +7713,7 @@
         <v>192</v>
       </c>
       <c r="B573">
-        <v>0.1293035394371294</v>
+        <v>0.08048068808940946</v>
       </c>
       <c r="C573" t="s">
         <v>128</v>
@@ -7724,7 +7724,7 @@
         <v>315</v>
       </c>
       <c r="B574">
-        <v>0.1189865723668981</v>
+        <v>0.1291764992190834</v>
       </c>
       <c r="C574" t="s">
         <v>72</v>
@@ -7735,7 +7735,7 @@
         <v>270</v>
       </c>
       <c r="B575">
-        <v>0.2511323720110152</v>
+        <v>0.3070507039165803</v>
       </c>
       <c r="C575" t="s">
         <v>103</v>
@@ -7746,7 +7746,7 @@
         <v>149</v>
       </c>
       <c r="B576">
-        <v>0.1624526195092718</v>
+        <v>0.1927690655290109</v>
       </c>
       <c r="C576" t="s">
         <v>103</v>
@@ -7757,7 +7757,7 @@
         <v>10</v>
       </c>
       <c r="B577">
-        <v>0.03565587495986512</v>
+        <v>0.05421462049098604</v>
       </c>
       <c r="C577" t="s">
         <v>11</v>
@@ -7768,7 +7768,7 @@
         <v>316</v>
       </c>
       <c r="B578">
-        <v>0.1769874454791512</v>
+        <v>0.1826151182382715</v>
       </c>
       <c r="C578" t="s">
         <v>4</v>
@@ -7801,7 +7801,7 @@
         <v>26</v>
       </c>
       <c r="B581">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C581" t="s">
         <v>6</v>
@@ -7812,7 +7812,7 @@
         <v>317</v>
       </c>
       <c r="B582">
-        <v>0.1055047476515623</v>
+        <v>0.1107324932457793</v>
       </c>
       <c r="C582" t="s">
         <v>103</v>
@@ -7823,7 +7823,7 @@
         <v>318</v>
       </c>
       <c r="B583">
-        <v>0.1759475069604423</v>
+        <v>0.197154590894389</v>
       </c>
       <c r="C583" t="s">
         <v>8</v>
@@ -7834,7 +7834,7 @@
         <v>159</v>
       </c>
       <c r="B584">
-        <v>0.0738401971908611</v>
+        <v>0.08091686274301003</v>
       </c>
       <c r="C584" t="s">
         <v>11</v>
@@ -7845,7 +7845,7 @@
         <v>319</v>
       </c>
       <c r="B585">
-        <v>0.1402473376305611</v>
+        <v>0.1307388814396234</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -7856,7 +7856,7 @@
         <v>146</v>
       </c>
       <c r="B586">
-        <v>0.2011250072559974</v>
+        <v>0.2402697383980003</v>
       </c>
       <c r="C586" t="s">
         <v>11</v>
@@ -7878,7 +7878,7 @@
         <v>320</v>
       </c>
       <c r="B588">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C588" t="s">
         <v>4</v>
@@ -7889,7 +7889,7 @@
         <v>23</v>
       </c>
       <c r="B589">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C589" t="s">
         <v>11</v>
@@ -7911,7 +7911,7 @@
         <v>143</v>
       </c>
       <c r="B591">
-        <v>0.3611575592573076</v>
+        <v>0.3961702187751452</v>
       </c>
       <c r="C591" t="s">
         <v>4</v>
@@ -7922,7 +7922,7 @@
         <v>30</v>
       </c>
       <c r="B592">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C592" t="s">
         <v>31</v>
@@ -7933,7 +7933,7 @@
         <v>321</v>
       </c>
       <c r="B593">
-        <v>0.144468833465166</v>
+        <v>0.1557668785628156</v>
       </c>
       <c r="C593" t="s">
         <v>8</v>
@@ -7944,7 +7944,7 @@
         <v>39</v>
       </c>
       <c r="B594">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C594" t="s">
         <v>40</v>
@@ -7955,7 +7955,7 @@
         <v>322</v>
       </c>
       <c r="B595">
-        <v>0.2160492388626309</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C595" t="s">
         <v>42</v>
@@ -7966,7 +7966,7 @@
         <v>323</v>
       </c>
       <c r="B596">
-        <v>0.1155330697578744</v>
+        <v>0.1184282114478557</v>
       </c>
       <c r="C596" t="s">
         <v>61</v>
@@ -7999,7 +7999,7 @@
         <v>324</v>
       </c>
       <c r="B599">
-        <v>0.2046827350270911</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C599" t="s">
         <v>6</v>
@@ -8010,7 +8010,7 @@
         <v>140</v>
       </c>
       <c r="B600">
-        <v>0.03954240969490432</v>
+        <v>0.03790403862446516</v>
       </c>
       <c r="C600" t="s">
         <v>11</v>
@@ -8032,7 +8032,7 @@
         <v>325</v>
       </c>
       <c r="B602">
-        <v>0.2132160064661374</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C602" t="s">
         <v>4</v>
@@ -8043,7 +8043,7 @@
         <v>294</v>
       </c>
       <c r="B603">
-        <v>0.05586065300068913</v>
+        <v>0.04591850314024535</v>
       </c>
       <c r="C603" t="s">
         <v>11</v>
@@ -8054,7 +8054,7 @@
         <v>159</v>
       </c>
       <c r="B604">
-        <v>0.0738401971908611</v>
+        <v>0.08091686274301003</v>
       </c>
       <c r="C604" t="s">
         <v>11</v>
@@ -8065,7 +8065,7 @@
         <v>326</v>
       </c>
       <c r="B605">
-        <v>0.1416509240227818</v>
+        <v>0.1439405940851725</v>
       </c>
       <c r="C605" t="s">
         <v>243</v>
@@ -8076,7 +8076,7 @@
         <v>327</v>
       </c>
       <c r="B606">
-        <v>0.1986151591671186</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C606" t="s">
         <v>66</v>
@@ -8087,7 +8087,7 @@
         <v>328</v>
       </c>
       <c r="B607">
-        <v>0.1580138786080862</v>
+        <v>0.1566883503119498</v>
       </c>
       <c r="C607" t="s">
         <v>34</v>
@@ -8098,7 +8098,7 @@
         <v>30</v>
       </c>
       <c r="B608">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C608" t="s">
         <v>31</v>
@@ -8109,7 +8109,7 @@
         <v>294</v>
       </c>
       <c r="B609">
-        <v>0.05586065300068913</v>
+        <v>0.04591850314024535</v>
       </c>
       <c r="C609" t="s">
         <v>11</v>
@@ -8120,7 +8120,7 @@
         <v>60</v>
       </c>
       <c r="B610">
-        <v>0.1029604550299477</v>
+        <v>0.09245508854661751</v>
       </c>
       <c r="C610" t="s">
         <v>103</v>
@@ -8131,7 +8131,7 @@
         <v>39</v>
       </c>
       <c r="B611">
-        <v>0.02864918597600669</v>
+        <v>0</v>
       </c>
       <c r="C611" t="s">
         <v>40</v>
@@ -8142,7 +8142,7 @@
         <v>19</v>
       </c>
       <c r="B612">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C612" t="s">
         <v>14</v>
@@ -8153,7 +8153,7 @@
         <v>329</v>
       </c>
       <c r="B613">
-        <v>0.1134940774934963</v>
+        <v>0.1334487662204247</v>
       </c>
       <c r="C613" t="s">
         <v>4</v>
@@ -8175,7 +8175,7 @@
         <v>76</v>
       </c>
       <c r="B615">
-        <v>0.3616076322094877</v>
+        <v>0.2550492937251445</v>
       </c>
       <c r="C615" t="s">
         <v>4</v>
@@ -8186,7 +8186,7 @@
         <v>23</v>
       </c>
       <c r="B616">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C616" t="s">
         <v>11</v>
@@ -8208,7 +8208,7 @@
         <v>30</v>
       </c>
       <c r="B618">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C618" t="s">
         <v>31</v>
@@ -8219,7 +8219,7 @@
         <v>33</v>
       </c>
       <c r="B619">
-        <v>0.3245377988084846</v>
+        <v>0.3016200970885012</v>
       </c>
       <c r="C619" t="s">
         <v>34</v>
@@ -8230,7 +8230,7 @@
         <v>92</v>
       </c>
       <c r="B620">
-        <v>0.06450775264535137</v>
+        <v>0.04977963733635955</v>
       </c>
       <c r="C620" t="s">
         <v>11</v>
@@ -8241,7 +8241,7 @@
         <v>330</v>
       </c>
       <c r="B621">
-        <v>0.1513648717505436</v>
+        <v>0.143255103686574</v>
       </c>
       <c r="C621" t="s">
         <v>82</v>
@@ -8252,7 +8252,7 @@
         <v>26</v>
       </c>
       <c r="B622">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C622" t="s">
         <v>6</v>
@@ -8263,7 +8263,7 @@
         <v>136</v>
       </c>
       <c r="B623">
-        <v>0.1642223608869795</v>
+        <v>0.1510448991593908</v>
       </c>
       <c r="C623" t="s">
         <v>103</v>
@@ -8274,7 +8274,7 @@
         <v>19</v>
       </c>
       <c r="B624">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C624" t="s">
         <v>14</v>
@@ -8285,7 +8285,7 @@
         <v>331</v>
       </c>
       <c r="B625">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C625" t="s">
         <v>4</v>
@@ -8296,7 +8296,7 @@
         <v>294</v>
       </c>
       <c r="B626">
-        <v>0.05586065300068913</v>
+        <v>0.04591850314024535</v>
       </c>
       <c r="C626" t="s">
         <v>11</v>
@@ -8307,7 +8307,7 @@
         <v>164</v>
       </c>
       <c r="B627">
-        <v>0.2354420178624285</v>
+        <v>0.3471996184205107</v>
       </c>
       <c r="C627" t="s">
         <v>4</v>
@@ -8318,7 +8318,7 @@
         <v>332</v>
       </c>
       <c r="B628">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C628" t="s">
         <v>6</v>
@@ -8340,7 +8340,7 @@
         <v>333</v>
       </c>
       <c r="B630">
-        <v>0.2029988305553369</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C630" t="s">
         <v>4</v>
@@ -8351,7 +8351,7 @@
         <v>23</v>
       </c>
       <c r="B631">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C631" t="s">
         <v>11</v>
@@ -8373,7 +8373,7 @@
         <v>334</v>
       </c>
       <c r="B633">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C633" t="s">
         <v>4</v>
@@ -8384,7 +8384,7 @@
         <v>74</v>
       </c>
       <c r="B634">
-        <v>0.2033420279410437</v>
+        <v>0.236679782415827</v>
       </c>
       <c r="C634" t="s">
         <v>4</v>
@@ -8395,7 +8395,7 @@
         <v>26</v>
       </c>
       <c r="B635">
-        <v>0.1107738437483154</v>
+        <v>0.06759020651239521</v>
       </c>
       <c r="C635" t="s">
         <v>6</v>
@@ -8406,7 +8406,7 @@
         <v>335</v>
       </c>
       <c r="B636">
-        <v>0.1973291401291344</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C636" t="s">
         <v>103</v>
@@ -8417,7 +8417,7 @@
         <v>19</v>
       </c>
       <c r="B637">
-        <v>0.02720088783527807</v>
+        <v>0.01705777956204739</v>
       </c>
       <c r="C637" t="s">
         <v>14</v>
@@ -8428,7 +8428,7 @@
         <v>336</v>
       </c>
       <c r="B638">
-        <v>0.1394911537117459</v>
+        <v>0.1557668785628156</v>
       </c>
       <c r="C638" t="s">
         <v>8</v>
@@ -8439,7 +8439,7 @@
         <v>269</v>
       </c>
       <c r="B639">
-        <v>0.2195234096632669</v>
+        <v>0.2242913869205521</v>
       </c>
       <c r="C639" t="s">
         <v>4</v>
@@ -8450,7 +8450,7 @@
         <v>270</v>
       </c>
       <c r="B640">
-        <v>0.2511323720110152</v>
+        <v>0.3070507039165803</v>
       </c>
       <c r="C640" t="s">
         <v>103</v>
@@ -8461,7 +8461,7 @@
         <v>117</v>
       </c>
       <c r="B641">
-        <v>0.2230914421561438</v>
+        <v>0.236679782415827</v>
       </c>
       <c r="C641" t="s">
         <v>34</v>
@@ -8472,7 +8472,7 @@
         <v>337</v>
       </c>
       <c r="B642">
-        <v>0.1453442636319611</v>
+        <v>0.132895500760979</v>
       </c>
       <c r="C642" t="s">
         <v>8</v>
@@ -8483,7 +8483,7 @@
         <v>30</v>
       </c>
       <c r="B643">
-        <v>0.03157379995358166</v>
+        <v>0</v>
       </c>
       <c r="C643" t="s">
         <v>31</v>
@@ -8494,7 +8494,7 @@
         <v>338</v>
       </c>
       <c r="B644">
-        <v>0.1632343087022717</v>
+        <v>0.1826151182382715</v>
       </c>
       <c r="C644" t="s">
         <v>8</v>
@@ -8505,7 +8505,7 @@
         <v>36</v>
       </c>
       <c r="B645">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C645" t="s">
         <v>34</v>
@@ -8527,7 +8527,7 @@
         <v>35</v>
       </c>
       <c r="B647">
-        <v>0.1734162607931829</v>
+        <v>0.2301261662652478</v>
       </c>
       <c r="C647" t="s">
         <v>4</v>
@@ -8538,7 +8538,7 @@
         <v>222</v>
       </c>
       <c r="B648">
-        <v>0.2195234096632669</v>
+        <v>0.2190136547023699</v>
       </c>
       <c r="C648" t="s">
         <v>103</v>
@@ -8549,7 +8549,7 @@
         <v>339</v>
       </c>
       <c r="B649">
-        <v>0.1873719855042872</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C649" t="s">
         <v>18</v>
@@ -8560,7 +8560,7 @@
         <v>79</v>
       </c>
       <c r="B650">
-        <v>0.3013520950363157</v>
+        <v>0.3961702187751452</v>
       </c>
       <c r="C650" t="s">
         <v>8</v>
@@ -8571,7 +8571,7 @@
         <v>36</v>
       </c>
       <c r="B651">
-        <v>0.5979235682315426</v>
+        <v>0.7923404375502905</v>
       </c>
       <c r="C651" t="s">
         <v>34</v>
@@ -8582,7 +8582,7 @@
         <v>192</v>
       </c>
       <c r="B652">
-        <v>0.1293035394371294</v>
+        <v>0.08048068808940946</v>
       </c>
       <c r="C652" t="s">
         <v>128</v>
@@ -8593,7 +8593,7 @@
         <v>340</v>
       </c>
       <c r="B653">
-        <v>0.1816362542669238</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C653" t="s">
         <v>72</v>
@@ -8604,7 +8604,7 @@
         <v>294</v>
       </c>
       <c r="B654">
-        <v>0.05586065300068913</v>
+        <v>0.04591850314024535</v>
       </c>
       <c r="C654" t="s">
         <v>11</v>
@@ -8615,7 +8615,7 @@
         <v>341</v>
       </c>
       <c r="B655">
-        <v>0.1659005137358859</v>
+        <v>0.2041928233018406</v>
       </c>
       <c r="C655" t="s">
         <v>66</v>
@@ -8626,7 +8626,7 @@
         <v>342</v>
       </c>
       <c r="B656">
-        <v>0.1407089653393291</v>
+        <v>0.1686143870865088</v>
       </c>
       <c r="C656" t="s">
         <v>8</v>
@@ -8637,7 +8637,7 @@
         <v>343</v>
       </c>
       <c r="B657">
-        <v>0.1359325123914218</v>
+        <v>0.1699165931156645</v>
       </c>
       <c r="C657" t="s">
         <v>4</v>
@@ -8648,7 +8648,7 @@
         <v>344</v>
       </c>
       <c r="B658">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C658" t="s">
         <v>4</v>
@@ -8659,7 +8659,7 @@
         <v>345</v>
       </c>
       <c r="B659">
-        <v>0.1613875174110684</v>
+        <v>0.1460615780319892</v>
       </c>
       <c r="C659" t="s">
         <v>6</v>
@@ -8670,7 +8670,7 @@
         <v>294</v>
       </c>
       <c r="B660">
-        <v>0.05586065300068913</v>
+        <v>0.04591850314024535</v>
       </c>
       <c r="C660" t="s">
         <v>11</v>
@@ -8692,7 +8692,7 @@
         <v>346</v>
       </c>
       <c r="B662">
-        <v>0.2466045076012492</v>
+        <v>0.2424008862571255</v>
       </c>
       <c r="C662" t="s">
         <v>4</v>
@@ -8703,7 +8703,7 @@
         <v>57</v>
       </c>
       <c r="B663">
-        <v>0.1185505689260276</v>
+        <v>0.1135751085110706</v>
       </c>
       <c r="C663" t="s">
         <v>14</v>
@@ -8714,7 +8714,7 @@
         <v>347</v>
       </c>
       <c r="B664">
-        <v>0.1251247639935007</v>
+        <v>0.1627237726946196</v>
       </c>
       <c r="C664" t="s">
         <v>8</v>
@@ -8725,7 +8725,7 @@
         <v>348</v>
       </c>
       <c r="B665">
-        <v>0.2160492388626309</v>
+        <v>0.2200849268025946</v>
       </c>
       <c r="C665" t="s">
         <v>8</v>
@@ -8736,7 +8736,7 @@
         <v>349</v>
       </c>
       <c r="B666">
-        <v>0.1582806647779349</v>
+        <v>0.1566883503119498</v>
       </c>
       <c r="C666" t="s">
         <v>4</v>
@@ -8747,7 +8747,7 @@
         <v>137</v>
       </c>
       <c r="B667">
-        <v>0.08555786669002273</v>
+        <v>0.03528553786282437</v>
       </c>
       <c r="C667" t="s">
         <v>350</v>
@@ -8758,7 +8758,7 @@
         <v>351</v>
       </c>
       <c r="B668">
-        <v>0.1961134296023767</v>
+        <v>0.2136641019245729</v>
       </c>
       <c r="C668" t="s">
         <v>6</v>
@@ -8780,7 +8780,7 @@
         <v>352</v>
       </c>
       <c r="B670">
-        <v>0.1632343087022717</v>
+        <v>0.1741404442470472</v>
       </c>
       <c r="C670" t="s">
         <v>4</v>
@@ -8791,7 +8791,7 @@
         <v>23</v>
       </c>
       <c r="B671">
-        <v>0.04235111570114054</v>
+        <v>0.03639627438820399</v>
       </c>
       <c r="C671" t="s">
         <v>11</v>
@@ -8802,7 +8802,7 @@
         <v>353</v>
       </c>
       <c r="B672">
-        <v>0.1938631897758934</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C672" t="s">
         <v>8</v>
@@ -8813,7 +8813,7 @@
         <v>354</v>
       </c>
       <c r="B673">
-        <v>0.2107309610626576</v>
+        <v>0.228728982454743</v>
       </c>
       <c r="C673" t="s">
         <v>34</v>
